--- a/capiq_data/in_process_data/IQ160077.xlsx
+++ b/capiq_data/in_process_data/IQ160077.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871A48D-49EC-4808-9E97-F51FA24AB3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4142F-3EAE-4771-AADD-557BB768CEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"81e41aaa-1ed1-44f7-a9c8-9d0165b70fd3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c4e6ddc9-8555-4085-b6c4-7c83c1f4068f"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>548.79999999999995</v>
+        <v>72.2</v>
       </c>
       <c r="D2">
-        <v>14622</v>
+        <v>2384.8000000000002</v>
       </c>
       <c r="E2">
-        <v>3041.6</v>
+        <v>510.5</v>
       </c>
       <c r="F2">
-        <v>3265.4</v>
+        <v>665.1</v>
       </c>
       <c r="G2">
-        <v>26140.799999999999</v>
+        <v>4624.3</v>
       </c>
       <c r="H2">
-        <v>50166.9</v>
+        <v>5708.5</v>
       </c>
       <c r="I2">
-        <v>9760.1</v>
+        <v>2027.2</v>
       </c>
       <c r="J2">
-        <v>8147.8</v>
+        <v>597.5</v>
       </c>
       <c r="K2">
-        <v>1001.5</v>
+        <v>250.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14009.5</v>
+        <v>2798</v>
       </c>
       <c r="O2">
-        <v>26354.3</v>
+        <v>3788.7</v>
       </c>
       <c r="P2">
-        <v>9855.2000000000007</v>
+        <v>848.2</v>
       </c>
       <c r="Q2">
-        <v>-457.4</v>
+        <v>36.6</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>37500</v>
+        <v>14800</v>
       </c>
       <c r="T2">
-        <v>23812.6</v>
+        <v>1919.8</v>
       </c>
       <c r="U2">
-        <v>1788.8</v>
+        <v>203.3</v>
       </c>
       <c r="V2">
-        <v>587</v>
+        <v>201.5</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-939.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>52.3</v>
+        <v>-132.6</v>
       </c>
       <c r="AA2">
-        <v>548.79999999999995</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>926.6</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="D3">
-        <v>14894.3</v>
+        <v>2560.5</v>
       </c>
       <c r="E3">
-        <v>3303.4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3666.3</v>
+        <v>626.4</v>
       </c>
       <c r="G3">
-        <v>26819.4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>50918</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>9799.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8542</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>889.8</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-211.7</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-700.8</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14160.3</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26939.9</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9791</v>
+        <v>848.2</v>
       </c>
       <c r="Q3">
-        <v>613.20000000000005</v>
+        <v>79.3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>23978.1</v>
+        <v>1919.8</v>
       </c>
       <c r="U3">
-        <v>2402</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1114.9000000000001</v>
+        <v>178.5</v>
       </c>
       <c r="W3">
-        <v>-92.8</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-785.8</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>285.8</v>
+        <v>-88</v>
       </c>
       <c r="AA3">
-        <v>926.6</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>701.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="D4">
-        <v>15100.7</v>
+        <v>2533.3000000000002</v>
       </c>
       <c r="E4">
-        <v>3100.9</v>
+        <v>498.5</v>
       </c>
       <c r="F4">
-        <v>3178.7</v>
+        <v>596.6</v>
       </c>
       <c r="G4">
-        <v>26756.799999999999</v>
+        <v>4842.3</v>
       </c>
       <c r="H4">
-        <v>50877.2</v>
+        <v>5838</v>
       </c>
       <c r="I4">
-        <v>9952.9</v>
+        <v>1862.8</v>
       </c>
       <c r="J4">
-        <v>8292.1</v>
+        <v>597.5</v>
       </c>
       <c r="K4">
-        <v>911.8</v>
+        <v>281.60000000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14107.3</v>
+        <v>2783.9</v>
       </c>
       <c r="O4">
-        <v>26695.9</v>
+        <v>3774.1</v>
       </c>
       <c r="P4">
-        <v>9660.2000000000007</v>
+        <v>879.1</v>
       </c>
       <c r="Q4">
-        <v>-702.2</v>
+        <v>-43.7</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>24181.3</v>
+        <v>2063.9</v>
       </c>
       <c r="U4">
-        <v>1699.8</v>
+        <v>238.9</v>
       </c>
       <c r="V4">
-        <v>771.8</v>
+        <v>82.6</v>
       </c>
       <c r="W4">
-        <v>-91.1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-723.5</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-619</v>
+        <v>-148.5</v>
       </c>
       <c r="AA4">
-        <v>701.6</v>
+        <v>72.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>683.2</v>
+        <v>111.5</v>
       </c>
       <c r="D5">
-        <v>15398</v>
+        <v>2663.7</v>
       </c>
       <c r="E5">
-        <v>3309.8</v>
+        <v>534.79999999999995</v>
       </c>
       <c r="F5">
-        <v>3335.1</v>
+        <v>686.9</v>
       </c>
       <c r="G5">
-        <v>27552.3</v>
+        <v>5085.1000000000004</v>
       </c>
       <c r="H5">
-        <v>52549.9</v>
+        <v>6093.2</v>
       </c>
       <c r="I5">
-        <v>10333.6</v>
+        <v>2010.7</v>
       </c>
       <c r="J5">
-        <v>8622.2999999999993</v>
+        <v>597.79999999999995</v>
       </c>
       <c r="K5">
-        <v>873.1</v>
+        <v>269</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15786.3</v>
+        <v>2823.4</v>
       </c>
       <c r="O5">
-        <v>28831.8</v>
+        <v>3918.3</v>
       </c>
       <c r="P5">
-        <v>10769.5</v>
+        <v>866.8</v>
       </c>
       <c r="Q5">
-        <v>808.6</v>
+        <v>125.7</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>23718.1</v>
+        <v>2174.9</v>
       </c>
       <c r="U5">
-        <v>2508.4</v>
+        <v>364.6</v>
       </c>
       <c r="V5">
-        <v>1429.8</v>
+        <v>250.7</v>
       </c>
       <c r="W5">
-        <v>-88.2</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>234.1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-153.1</v>
+        <v>-103.9</v>
       </c>
       <c r="AA5">
-        <v>683.2</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>335.3</v>
+        <v>87.7</v>
       </c>
       <c r="D6">
-        <v>15317.7</v>
+        <v>2662.2</v>
       </c>
       <c r="E6">
-        <v>3402.9</v>
+        <v>544.70000000000005</v>
       </c>
       <c r="F6">
-        <v>2883.1</v>
+        <v>695.1</v>
       </c>
       <c r="G6">
-        <v>27097.4</v>
+        <v>5299.9</v>
       </c>
       <c r="H6">
-        <v>52163.199999999997</v>
+        <v>6276.6</v>
       </c>
       <c r="I6">
-        <v>10946.4</v>
+        <v>2182.9</v>
       </c>
       <c r="J6">
-        <v>8465.7000000000007</v>
+        <v>818</v>
       </c>
       <c r="K6">
-        <v>972.5</v>
+        <v>310.7</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15898.7</v>
+        <v>2976.6</v>
       </c>
       <c r="O6">
-        <v>28875</v>
+        <v>4216.6000000000004</v>
       </c>
       <c r="P6">
-        <v>10712.7</v>
+        <v>1129</v>
       </c>
       <c r="Q6">
-        <v>-306.8</v>
+        <v>41.8</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>37700</v>
+        <v>14800</v>
       </c>
       <c r="T6">
-        <v>23288.2</v>
+        <v>2060</v>
       </c>
       <c r="U6">
-        <v>2201.6</v>
+        <v>406.4</v>
       </c>
       <c r="V6">
-        <v>57.9</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="W6">
-        <v>-85.7</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-744</v>
+        <v>46.6</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>662.3</v>
+        <v>-132.30000000000001</v>
       </c>
       <c r="AA6">
-        <v>335.3</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>856.5</v>
+        <v>99.8</v>
       </c>
       <c r="D7">
-        <v>15415.2</v>
+        <v>2812.4</v>
       </c>
       <c r="E7">
-        <v>3722.1</v>
+        <v>610.6</v>
       </c>
       <c r="F7">
-        <v>3643.3</v>
+        <v>676</v>
       </c>
       <c r="G7">
-        <v>27543.599999999999</v>
+        <v>5418.2</v>
       </c>
       <c r="H7">
-        <v>52496.5</v>
+        <v>6403</v>
       </c>
       <c r="I7">
-        <v>10531.6</v>
+        <v>2081</v>
       </c>
       <c r="J7">
-        <v>8462.5</v>
+        <v>818.7</v>
       </c>
       <c r="K7">
-        <v>815.9</v>
+        <v>360.2</v>
       </c>
       <c r="L7">
-        <v>-256.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-350.8</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15955.1</v>
+        <v>3008</v>
       </c>
       <c r="O7">
-        <v>28968.1</v>
+        <v>4277</v>
       </c>
       <c r="P7">
-        <v>10189.200000000001</v>
+        <v>1178.9000000000001</v>
       </c>
       <c r="Q7">
-        <v>77.5</v>
+        <v>49.9</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>23528.400000000001</v>
+        <v>2126</v>
       </c>
       <c r="U7">
-        <v>2279.1</v>
+        <v>456.3</v>
       </c>
       <c r="V7">
-        <v>1223.0999999999999</v>
+        <v>183.3</v>
       </c>
       <c r="W7">
-        <v>-95.8</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-1167</v>
+        <v>0.1</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-10.9</v>
+        <v>-95.9</v>
       </c>
       <c r="AA7">
-        <v>856.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>643.6</v>
+        <v>106.2</v>
       </c>
       <c r="D8">
-        <v>15407.3</v>
+        <v>2900.1</v>
       </c>
       <c r="E8">
-        <v>3890.7</v>
+        <v>596.1</v>
       </c>
       <c r="F8">
-        <v>3314.2</v>
+        <v>725.3</v>
       </c>
       <c r="G8">
-        <v>28470.1</v>
+        <v>5670.2</v>
       </c>
       <c r="H8">
-        <v>54535</v>
+        <v>6641.4</v>
       </c>
       <c r="I8">
-        <v>10543.5</v>
+        <v>2076.9</v>
       </c>
       <c r="J8">
-        <v>10135.6</v>
+        <v>819.3</v>
       </c>
       <c r="K8">
-        <v>966.4</v>
+        <v>304.7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16177.8</v>
+        <v>3092.1</v>
       </c>
       <c r="O8">
-        <v>30891.200000000001</v>
+        <v>4410.7</v>
       </c>
       <c r="P8">
-        <v>11915.7</v>
+        <v>1124</v>
       </c>
       <c r="Q8">
-        <v>-326</v>
+        <v>209.4</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>23643.8</v>
+        <v>2230.6999999999998</v>
       </c>
       <c r="U8">
-        <v>1953.1</v>
+        <v>665.7</v>
       </c>
       <c r="V8">
-        <v>521.5</v>
+        <v>60.1</v>
       </c>
       <c r="W8">
-        <v>-93.5</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1141.8</v>
+        <v>-37.4</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-930.5</v>
+        <v>208.6</v>
       </c>
       <c r="AA8">
-        <v>643.6</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>691.2</v>
+        <v>171.2</v>
       </c>
       <c r="D9">
-        <v>15353.1</v>
+        <v>3578.4</v>
       </c>
       <c r="E9">
-        <v>3645.7</v>
+        <v>835.7</v>
       </c>
       <c r="F9">
-        <v>3368.3</v>
+        <v>951.8</v>
       </c>
       <c r="G9">
-        <v>29640.3</v>
+        <v>7793.6</v>
       </c>
       <c r="H9">
-        <v>55817.9</v>
+        <v>12235.2</v>
       </c>
       <c r="I9">
-        <v>10461.5</v>
+        <v>2729.9</v>
       </c>
       <c r="J9">
-        <v>13395.7</v>
+        <v>1658.5</v>
       </c>
       <c r="K9">
-        <v>893</v>
+        <v>371.2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14083.1</v>
+        <v>4455.7</v>
       </c>
       <c r="O9">
-        <v>32001.4</v>
+        <v>6909.9</v>
       </c>
       <c r="P9">
-        <v>14288.9</v>
+        <v>2029.7</v>
       </c>
       <c r="Q9">
-        <v>489</v>
+        <v>246.3</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>23816.5</v>
+        <v>5325.3</v>
       </c>
       <c r="U9">
-        <v>2442.1</v>
+        <v>912</v>
       </c>
       <c r="V9">
-        <v>240.2</v>
+        <v>380.5</v>
       </c>
       <c r="W9">
-        <v>-90.7</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1566.3</v>
+        <v>879.8</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-1147.3</v>
+        <v>-208.2</v>
       </c>
       <c r="AA9">
-        <v>691.2</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>171.9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3990.7</v>
       </c>
       <c r="E10">
-        <v>3687.4</v>
+        <v>892.7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1089.0999999999999</v>
       </c>
       <c r="G10">
-        <v>29347.5</v>
+        <v>7876.5</v>
       </c>
       <c r="H10">
-        <v>58955.4</v>
+        <v>12439.3</v>
       </c>
       <c r="I10">
-        <v>11680.2</v>
+        <v>3139.8</v>
       </c>
       <c r="J10">
-        <v>14170.8</v>
+        <v>1659.4</v>
       </c>
       <c r="K10">
-        <v>814.7</v>
+        <v>357.9</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15995</v>
+        <v>4448.8999999999996</v>
       </c>
       <c r="O10">
-        <v>35152.699999999997</v>
+        <v>7077</v>
       </c>
       <c r="P10">
-        <v>15542.6</v>
+        <v>2117.5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-217.1</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>43500</v>
+        <v>19500</v>
       </c>
       <c r="T10">
-        <v>23802.7</v>
+        <v>5362.3</v>
       </c>
       <c r="U10">
-        <v>2475.3000000000002</v>
+        <v>694.9</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>367.2</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-133.19999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-418.1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>171.9</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>885.2</v>
+        <v>191.7</v>
       </c>
       <c r="D11">
-        <v>17576</v>
+        <v>4100.3</v>
       </c>
       <c r="E11">
-        <v>4098.8999999999996</v>
+        <v>903.8</v>
       </c>
       <c r="F11">
-        <v>3827.3</v>
+        <v>1063.7</v>
       </c>
       <c r="G11">
-        <v>28660.7</v>
+        <v>8123.1</v>
       </c>
       <c r="H11">
-        <v>59408.6</v>
+        <v>12506.9</v>
       </c>
       <c r="I11">
-        <v>11569.2</v>
+        <v>3072.4</v>
       </c>
       <c r="J11">
-        <v>14030</v>
+        <v>1660.3</v>
       </c>
       <c r="K11">
-        <v>927.5</v>
+        <v>383.9</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-556.9</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16030.1</v>
+        <v>4611.7</v>
       </c>
       <c r="O11">
-        <v>35090.6</v>
+        <v>7030.9</v>
       </c>
       <c r="P11">
-        <v>15356.9</v>
+        <v>2044.2</v>
       </c>
       <c r="Q11">
-        <v>-819.3</v>
+        <v>-231</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>24318</v>
+        <v>5476</v>
       </c>
       <c r="U11">
-        <v>1665.3</v>
+        <v>463.9</v>
       </c>
       <c r="V11">
-        <v>956.9</v>
+        <v>249</v>
       </c>
       <c r="W11">
-        <v>-113.4</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-579.1</v>
+        <v>-78.400000000000006</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-994.6</v>
+        <v>-386.7</v>
       </c>
       <c r="AA11">
-        <v>885.2</v>
+        <v>191.7</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>800.1</v>
+        <v>177.3</v>
       </c>
       <c r="D12">
-        <v>17690.3</v>
+        <v>4114.3999999999996</v>
       </c>
       <c r="E12">
-        <v>4330</v>
+        <v>997.7</v>
       </c>
       <c r="F12">
-        <v>3857.7</v>
+        <v>1097.0999999999999</v>
       </c>
       <c r="G12">
-        <v>28900.799999999999</v>
+        <v>8541.5</v>
       </c>
       <c r="H12">
-        <v>59612.3</v>
+        <v>12908.9</v>
       </c>
       <c r="I12">
-        <v>11792.6</v>
+        <v>3059.1</v>
       </c>
       <c r="J12">
-        <v>14091.5</v>
+        <v>1661.1</v>
       </c>
       <c r="K12">
-        <v>1020.6</v>
+        <v>376.4</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16034.1</v>
+        <v>4689.6000000000004</v>
       </c>
       <c r="O12">
-        <v>35079.800000000003</v>
+        <v>7174.6</v>
       </c>
       <c r="P12">
-        <v>15511.7</v>
+        <v>2037.5</v>
       </c>
       <c r="Q12">
-        <v>-318</v>
+        <v>12</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>24532.5</v>
+        <v>5734.3</v>
       </c>
       <c r="U12">
-        <v>1347.3</v>
+        <v>475.9</v>
       </c>
       <c r="V12">
-        <v>425.2</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="W12">
-        <v>-112.7</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>123.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-628.9</v>
+        <v>-93.5</v>
       </c>
       <c r="AA12">
-        <v>800.1</v>
+        <v>177.3</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>656.2</v>
+        <v>196.5</v>
       </c>
       <c r="D13">
-        <v>17855.5</v>
+        <v>4261.8</v>
       </c>
       <c r="E13">
-        <v>4014</v>
+        <v>1065</v>
       </c>
       <c r="F13">
-        <v>3780.5</v>
+        <v>1138.5</v>
       </c>
       <c r="G13">
-        <v>29596.9</v>
+        <v>8634.4</v>
       </c>
       <c r="H13">
-        <v>60263.5</v>
+        <v>13205.2</v>
       </c>
       <c r="I13">
-        <v>11801.3</v>
+        <v>3096</v>
       </c>
       <c r="J13">
-        <v>14514</v>
+        <v>1662</v>
       </c>
       <c r="K13">
-        <v>1187.7</v>
+        <v>447.3</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16042.4</v>
+        <v>4712.3999999999996</v>
       </c>
       <c r="O13">
-        <v>35455.4</v>
+        <v>7352.2</v>
       </c>
       <c r="P13">
-        <v>15701.8</v>
+        <v>2109.3000000000002</v>
       </c>
       <c r="Q13">
-        <v>838.4</v>
+        <v>194.2</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>24808.1</v>
+        <v>5853</v>
       </c>
       <c r="U13">
-        <v>2185.6999999999998</v>
+        <v>670.1</v>
       </c>
       <c r="V13">
-        <v>1397.4</v>
+        <v>331.5</v>
       </c>
       <c r="W13">
-        <v>-111.4</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-536.79999999999995</v>
+        <v>-130</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>331.5</v>
+        <v>20.2</v>
       </c>
       <c r="AA13">
-        <v>656.2</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>208.8</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4304.8999999999996</v>
       </c>
       <c r="E14">
-        <v>3968.7</v>
+        <v>690.3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="G14">
-        <v>29745.8</v>
+        <v>8775.1</v>
       </c>
       <c r="H14">
-        <v>59574.5</v>
+        <v>13414.6</v>
       </c>
       <c r="I14">
-        <v>11689.8</v>
+        <v>3262.5</v>
       </c>
       <c r="J14">
-        <v>13573.6</v>
+        <v>1662.8</v>
       </c>
       <c r="K14">
-        <v>1369.7</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16351.5</v>
+        <v>4775.2</v>
       </c>
       <c r="O14">
-        <v>34809.300000000003</v>
+        <v>7414.7</v>
       </c>
       <c r="P14">
-        <v>15461.3</v>
+        <v>1663.2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-205.6</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>48200</v>
+        <v>20130</v>
       </c>
       <c r="T14">
-        <v>24765.200000000001</v>
+        <v>5999.9</v>
       </c>
       <c r="U14">
-        <v>1582.1</v>
+        <v>464.5</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>433.3</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>-53.9</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-561.29999999999995</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>701</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="D15">
-        <v>17859.400000000001</v>
+        <v>4573.8</v>
       </c>
       <c r="E15">
-        <v>4457.5</v>
+        <v>1093</v>
       </c>
       <c r="F15">
-        <v>4194.8</v>
+        <v>1219.2</v>
       </c>
       <c r="G15">
-        <v>31806.799999999999</v>
+        <v>9383.7000000000007</v>
       </c>
       <c r="H15">
-        <v>61685.5</v>
+        <v>13929.9</v>
       </c>
       <c r="I15">
-        <v>12906.3</v>
+        <v>3173.8</v>
       </c>
       <c r="J15">
-        <v>13932.1</v>
+        <v>1663.7</v>
       </c>
       <c r="K15">
-        <v>1914.6</v>
+        <v>408.6</v>
       </c>
       <c r="L15">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-24.2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>18493.7</v>
+        <v>4900.1000000000004</v>
       </c>
       <c r="O15">
-        <v>37340.199999999997</v>
+        <v>7574.4</v>
       </c>
       <c r="P15">
-        <v>16365.4</v>
+        <v>2072.3000000000002</v>
       </c>
       <c r="Q15">
-        <v>384.3</v>
+        <v>221.8</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>24345.3</v>
+        <v>6355.5</v>
       </c>
       <c r="U15">
-        <v>1971.2</v>
+        <v>686.3</v>
       </c>
       <c r="V15">
-        <v>1387.5</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="W15">
-        <v>-123.4</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-258.60000000000002</v>
+        <v>30.2</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-947.4</v>
+        <v>-94.4</v>
       </c>
       <c r="AA15">
-        <v>701</v>
+        <v>295.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>731.1</v>
+        <v>237.9</v>
       </c>
       <c r="D16">
-        <v>18473.400000000001</v>
+        <v>4607.8999999999996</v>
       </c>
       <c r="E16">
-        <v>4547.2</v>
+        <v>1112.8</v>
       </c>
       <c r="F16">
-        <v>4352.1000000000004</v>
+        <v>1213.8</v>
       </c>
       <c r="G16">
-        <v>32428.2</v>
+        <v>9142.9</v>
       </c>
       <c r="H16">
-        <v>62303.6</v>
+        <v>13658.5</v>
       </c>
       <c r="I16">
-        <v>13460.5</v>
+        <v>3111.1</v>
       </c>
       <c r="J16">
-        <v>14037.8</v>
+        <v>1664.6</v>
       </c>
       <c r="K16">
-        <v>2196.6999999999998</v>
+        <v>428.6</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19176.3</v>
+        <v>4397.6000000000004</v>
       </c>
       <c r="O16">
-        <v>37926.699999999997</v>
+        <v>7095.4</v>
       </c>
       <c r="P16">
-        <v>16743.900000000001</v>
+        <v>2093.1999999999998</v>
       </c>
       <c r="Q16">
-        <v>-186.6</v>
+        <v>404.1</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>24376.9</v>
+        <v>6563.1</v>
       </c>
       <c r="U16">
-        <v>1784.6</v>
+        <v>1090.4000000000001</v>
       </c>
       <c r="V16">
-        <v>1071</v>
+        <v>-30.5</v>
       </c>
       <c r="W16">
-        <v>-120.5</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-474.1</v>
+        <v>12.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-25.5</v>
+        <v>449.9</v>
       </c>
       <c r="AA16">
-        <v>731.1</v>
+        <v>237.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>630.9</v>
+        <v>242.1</v>
       </c>
       <c r="D17">
-        <v>18557</v>
+        <v>4807.2</v>
       </c>
       <c r="E17">
-        <v>4438.1000000000004</v>
+        <v>1115.8</v>
       </c>
       <c r="F17">
-        <v>4345.8999999999996</v>
+        <v>1219.8</v>
       </c>
       <c r="G17">
-        <v>32227.1</v>
+        <v>9626.7000000000007</v>
       </c>
       <c r="H17">
-        <v>62058.2</v>
+        <v>14136.5</v>
       </c>
       <c r="I17">
-        <v>12908.6</v>
+        <v>3228.7</v>
       </c>
       <c r="J17">
-        <v>14538.3</v>
+        <v>1520.4</v>
       </c>
       <c r="K17">
-        <v>1798.2</v>
+        <v>378.6</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18395</v>
+        <v>4813.6000000000004</v>
       </c>
       <c r="O17">
-        <v>37764.199999999997</v>
+        <v>7335.8</v>
       </c>
       <c r="P17">
-        <v>16961.5</v>
+        <v>2050.1999999999998</v>
       </c>
       <c r="Q17">
-        <v>-66.7</v>
+        <v>-379.8</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>24294</v>
+        <v>6800.7</v>
       </c>
       <c r="U17">
-        <v>1717.9</v>
+        <v>710.6</v>
       </c>
       <c r="V17">
-        <v>605.70000000000005</v>
+        <v>410.3</v>
       </c>
       <c r="W17">
-        <v>-119.2</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-560.9</v>
+        <v>-62.1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-195.4</v>
+        <v>-716.6</v>
       </c>
       <c r="AA17">
-        <v>630.9</v>
+        <v>242.1</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>506.7</v>
+        <v>184.5</v>
       </c>
       <c r="D18">
-        <v>18984.3</v>
+        <v>6826.2</v>
       </c>
       <c r="E18">
-        <v>4825.5</v>
+        <v>1574.6</v>
       </c>
       <c r="F18">
-        <v>4126.3999999999996</v>
+        <v>1774.5</v>
       </c>
       <c r="G18">
-        <v>31947.8</v>
+        <v>19357.5</v>
       </c>
       <c r="H18">
-        <v>61676.3</v>
+        <v>39738.400000000001</v>
       </c>
       <c r="I18">
-        <v>13207.6</v>
+        <v>7778.6</v>
       </c>
       <c r="J18">
-        <v>14019.6</v>
+        <v>4289.5</v>
       </c>
       <c r="K18">
-        <v>1915.3</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18752.7</v>
+        <v>11581.2</v>
       </c>
       <c r="O18">
-        <v>37425</v>
+        <v>20279.400000000001</v>
       </c>
       <c r="P18">
-        <v>16559.2</v>
+        <v>4450.3999999999996</v>
       </c>
       <c r="Q18">
-        <v>433.8</v>
+        <v>746.6</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>51500</v>
+        <v>38000</v>
       </c>
       <c r="T18">
-        <v>24251.3</v>
+        <v>19459</v>
       </c>
       <c r="U18">
-        <v>2151.6999999999998</v>
+        <v>1457.2</v>
       </c>
       <c r="V18">
-        <v>305.10000000000002</v>
+        <v>612.79999999999995</v>
       </c>
       <c r="W18">
-        <v>-117.6</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-528.9</v>
+        <v>2082.8000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>693.1</v>
+        <v>339.1</v>
       </c>
       <c r="AA18">
-        <v>506.7</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>865.2</v>
+        <v>611.70000000000005</v>
       </c>
       <c r="D19">
-        <v>19051.5</v>
+        <v>10943.1</v>
       </c>
       <c r="E19">
-        <v>4964.6000000000004</v>
+        <v>1680.1</v>
       </c>
       <c r="F19">
-        <v>4924.6000000000004</v>
+        <v>2844</v>
       </c>
       <c r="G19">
-        <v>34740.400000000001</v>
+        <v>20480.099999999999</v>
       </c>
       <c r="H19">
-        <v>65546</v>
+        <v>40487.9</v>
       </c>
       <c r="I19">
-        <v>14482.4</v>
+        <v>7527.7</v>
       </c>
       <c r="J19">
-        <v>14764.4</v>
+        <v>4273.2</v>
       </c>
       <c r="K19">
-        <v>2473.4</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-905.9</v>
+        <v>-220.9</v>
       </c>
       <c r="M19">
-        <v>-16.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>21305.4</v>
+        <v>11853.4</v>
       </c>
       <c r="O19">
-        <v>41211.699999999997</v>
+        <v>20487.2</v>
       </c>
       <c r="P19">
-        <v>17862.8</v>
+        <v>4273.2</v>
       </c>
       <c r="Q19">
-        <v>-754.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>24334.3</v>
+        <v>20000.7</v>
       </c>
       <c r="U19">
-        <v>1397</v>
+        <v>1490.9</v>
       </c>
       <c r="V19">
-        <v>1650.5</v>
+        <v>931.4</v>
       </c>
       <c r="W19">
-        <v>-166.6</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>311.89999999999998</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1447</v>
+        <v>-704.7</v>
       </c>
       <c r="AA19">
-        <v>865.2</v>
+        <v>611.70000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>859.1</v>
+        <v>559.4</v>
       </c>
       <c r="D20">
-        <v>20012.400000000001</v>
+        <v>11149</v>
       </c>
       <c r="E20">
-        <v>4940.8</v>
+        <v>1702</v>
       </c>
       <c r="F20">
-        <v>4807</v>
+        <v>2919.4</v>
       </c>
       <c r="G20">
-        <v>33202.199999999997</v>
+        <v>21456.799999999999</v>
       </c>
       <c r="H20">
-        <v>64263.8</v>
+        <v>41691.300000000003</v>
       </c>
       <c r="I20">
-        <v>14420.8</v>
+        <v>7606</v>
       </c>
       <c r="J20">
-        <v>15468.4</v>
+        <v>4009.8</v>
       </c>
       <c r="K20">
-        <v>2258.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20673.2</v>
+        <v>12782</v>
       </c>
       <c r="O20">
-        <v>41201.199999999997</v>
+        <v>21139.599999999999</v>
       </c>
       <c r="P20">
-        <v>18351.5</v>
+        <v>4622.5</v>
       </c>
       <c r="Q20">
-        <v>156</v>
+        <v>462.4</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>23062.6</v>
+        <v>20551.7</v>
       </c>
       <c r="U20">
-        <v>1553</v>
+        <v>1953.3</v>
       </c>
       <c r="V20">
-        <v>1173</v>
+        <v>659.9</v>
       </c>
       <c r="W20">
-        <v>-163.9</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-1703</v>
+        <v>-128.19999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>526.5</v>
+        <v>75.8</v>
       </c>
       <c r="AA20">
-        <v>859.1</v>
+        <v>559.4</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>654.79999999999995</v>
+        <v>640.70000000000005</v>
       </c>
       <c r="D21">
-        <v>19910.400000000001</v>
+        <v>11156.9</v>
       </c>
       <c r="E21">
-        <v>4401.3999999999996</v>
+        <v>1757</v>
       </c>
       <c r="F21">
-        <v>4441.3</v>
+        <v>3060.7</v>
       </c>
       <c r="G21">
-        <v>31539.4</v>
+        <v>21572.400000000001</v>
       </c>
       <c r="H21">
-        <v>62335.6</v>
+        <v>41855.599999999999</v>
       </c>
       <c r="I21">
-        <v>12965.7</v>
+        <v>7812.1</v>
       </c>
       <c r="J21">
-        <v>15719.6</v>
+        <v>3918.1</v>
       </c>
       <c r="K21">
-        <v>2058.6</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18365.8</v>
+        <v>12281.9</v>
       </c>
       <c r="O21">
-        <v>39099.5</v>
+        <v>20620.900000000001</v>
       </c>
       <c r="P21">
-        <v>17778.2</v>
+        <v>4377.7</v>
       </c>
       <c r="Q21">
-        <v>-5.2</v>
+        <v>210</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>23236.1</v>
+        <v>21234.7</v>
       </c>
       <c r="U21">
-        <v>1547.8</v>
+        <v>2163.3000000000002</v>
       </c>
       <c r="V21">
-        <v>343.4</v>
+        <v>729.1</v>
       </c>
       <c r="W21">
-        <v>-163</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-593.9</v>
+        <v>331.2</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>129.19999999999999</v>
+        <v>-535.70000000000005</v>
       </c>
       <c r="AA21">
-        <v>654.79999999999995</v>
+        <v>640.70000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>180.9</v>
+        <v>652</v>
       </c>
       <c r="D22">
-        <v>20184.099999999999</v>
+        <v>11292.3</v>
       </c>
       <c r="E22">
-        <v>4602.8</v>
+        <v>2216.4</v>
       </c>
       <c r="F22">
-        <v>3868.6</v>
+        <v>3092</v>
       </c>
       <c r="G22">
-        <v>30862.1</v>
+        <v>11448.5</v>
       </c>
       <c r="H22">
-        <v>61717.8</v>
+        <v>51287.199999999997</v>
       </c>
       <c r="I22">
-        <v>13217</v>
+        <v>9548.2000000000007</v>
       </c>
       <c r="J22">
-        <v>15324.5</v>
+        <v>6369.6</v>
       </c>
       <c r="K22">
-        <v>1840.9</v>
+        <v>1389.9</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19092.599999999999</v>
+        <v>14778.4</v>
       </c>
       <c r="O22">
-        <v>38673.699999999997</v>
+        <v>26294.1</v>
       </c>
       <c r="P22">
-        <v>17165.400000000001</v>
+        <v>8240.7000000000007</v>
       </c>
       <c r="Q22">
-        <v>565.70000000000005</v>
+        <v>576.9</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>53000</v>
+        <v>42000</v>
       </c>
       <c r="T22">
-        <v>23044.1</v>
+        <v>24993.1</v>
       </c>
       <c r="U22">
-        <v>2113.5</v>
+        <v>2740.2</v>
       </c>
       <c r="V22">
-        <v>949.1</v>
+        <v>815.1</v>
       </c>
       <c r="W22">
-        <v>-163.1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1012.4</v>
+        <v>2965.4</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>711.9</v>
+        <v>-607.1</v>
       </c>
       <c r="AA22">
-        <v>180.9</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>703</v>
+        <v>731.8</v>
       </c>
       <c r="D23">
-        <v>20305.400000000001</v>
+        <v>13838.5</v>
       </c>
       <c r="E23">
-        <v>4998.3999999999996</v>
+        <v>2280.6999999999998</v>
       </c>
       <c r="F23">
-        <v>4766.6000000000004</v>
+        <v>3613.5</v>
       </c>
       <c r="G23">
-        <v>32965</v>
+        <v>11011.8</v>
       </c>
       <c r="H23">
-        <v>63858.7</v>
+        <v>51365.7</v>
       </c>
       <c r="I23">
-        <v>14013.9</v>
+        <v>9651.4</v>
       </c>
       <c r="J23">
-        <v>14864.5</v>
+        <v>6663.9</v>
       </c>
       <c r="K23">
-        <v>1995.3</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-1170.5</v>
+        <v>-872.9</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1703.8</v>
       </c>
       <c r="N23">
-        <v>20810.3</v>
+        <v>15512.1</v>
       </c>
       <c r="O23">
-        <v>40311.599999999999</v>
+        <v>27252.799999999999</v>
       </c>
       <c r="P23">
-        <v>17259</v>
+        <v>7140</v>
       </c>
       <c r="Q23">
-        <v>-437.5</v>
+        <v>-600.20000000000005</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>23547.1</v>
+        <v>24112.9</v>
       </c>
       <c r="U23">
-        <v>1676</v>
+        <v>2140</v>
       </c>
       <c r="V23">
-        <v>1359.8</v>
+        <v>1797.6</v>
       </c>
       <c r="W23">
-        <v>-170.7</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-408.7</v>
+        <v>-1785.1</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1118.5</v>
+        <v>-751.7</v>
       </c>
       <c r="AA23">
-        <v>703</v>
+        <v>731.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>780.6</v>
+        <v>751.2</v>
       </c>
       <c r="D24">
-        <v>21465.599999999999</v>
+        <v>14171.1</v>
       </c>
       <c r="E24">
-        <v>5260.9</v>
+        <v>2360.6</v>
       </c>
       <c r="F24">
-        <v>4660.3999999999996</v>
+        <v>3684.3</v>
       </c>
       <c r="G24">
-        <v>32957.699999999997</v>
+        <v>10585.1</v>
       </c>
       <c r="H24">
-        <v>64062.6</v>
+        <v>50091.8</v>
       </c>
       <c r="I24">
-        <v>14231.1</v>
+        <v>9829.6</v>
       </c>
       <c r="J24">
-        <v>14202.4</v>
+        <v>7446.4</v>
       </c>
       <c r="K24">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20816.8</v>
+        <v>14342.7</v>
       </c>
       <c r="O24">
-        <v>39829</v>
+        <v>26854</v>
       </c>
       <c r="P24">
-        <v>17082.3</v>
+        <v>7468.8</v>
       </c>
       <c r="Q24">
-        <v>-93.3</v>
+        <v>-205.6</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>24233.599999999999</v>
+        <v>23237.8</v>
       </c>
       <c r="U24">
-        <v>1582.7</v>
+        <v>1934.4</v>
       </c>
       <c r="V24">
-        <v>669.6</v>
+        <v>201</v>
       </c>
       <c r="W24">
-        <v>-170.9</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-444.7</v>
+        <v>-1345.6</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-141.6</v>
+        <v>489.3</v>
       </c>
       <c r="AA24">
-        <v>780.6</v>
+        <v>751.2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>617.79999999999995</v>
+        <v>810.8</v>
       </c>
       <c r="D25">
-        <v>21408.799999999999</v>
+        <v>14449.4</v>
       </c>
       <c r="E25">
-        <v>5212.8</v>
+        <v>2598</v>
       </c>
       <c r="F25">
-        <v>4486.3</v>
+        <v>3736.5</v>
       </c>
       <c r="G25">
-        <v>32924.300000000003</v>
+        <v>11637</v>
       </c>
       <c r="H25">
-        <v>64399.9</v>
+        <v>51484.2</v>
       </c>
       <c r="I25">
-        <v>13350.7</v>
+        <v>10782.5</v>
       </c>
       <c r="J25">
-        <v>14242.3</v>
+        <v>7122.2</v>
       </c>
       <c r="K25">
-        <v>1799.3</v>
+        <v>899</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21036.9</v>
+        <v>14950.6</v>
       </c>
       <c r="O25">
-        <v>39655.699999999997</v>
+        <v>27340.799999999999</v>
       </c>
       <c r="P25">
-        <v>16969.5</v>
+        <v>8242.7000000000007</v>
       </c>
       <c r="Q25">
-        <v>963.3</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>24744.2</v>
+        <v>24143.4</v>
       </c>
       <c r="U25">
-        <v>2546</v>
+        <v>2229.5</v>
       </c>
       <c r="V25">
-        <v>964</v>
+        <v>614.70000000000005</v>
       </c>
       <c r="W25">
-        <v>-171.1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-524.6</v>
+        <v>168.4</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>573.29999999999995</v>
+        <v>-221.3</v>
       </c>
       <c r="AA25">
-        <v>617.79999999999995</v>
+        <v>810.8</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>368.4</v>
+        <v>801.1</v>
       </c>
       <c r="D26">
-        <v>21683</v>
+        <v>14579.8</v>
       </c>
       <c r="E26">
-        <v>5860.8</v>
+        <v>2335.3000000000002</v>
       </c>
       <c r="F26">
-        <v>4115.1000000000004</v>
+        <v>3813.1</v>
       </c>
       <c r="G26">
-        <v>34314.9</v>
+        <v>11621.8</v>
       </c>
       <c r="H26">
-        <v>65083.1</v>
+        <v>51574.9</v>
       </c>
       <c r="I26">
-        <v>14200.4</v>
+        <v>10664.5</v>
       </c>
       <c r="J26">
-        <v>14358.5</v>
+        <v>6493.2</v>
       </c>
       <c r="K26">
-        <v>1518.9</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>21294.400000000001</v>
+        <v>15138.5</v>
       </c>
       <c r="O26">
-        <v>39982.699999999997</v>
+        <v>26999.1</v>
       </c>
       <c r="P26">
-        <v>16805.8</v>
+        <v>7014.2</v>
       </c>
       <c r="Q26">
-        <v>1529.3</v>
+        <v>372.6</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>53000</v>
+        <v>42000</v>
       </c>
       <c r="T26">
-        <v>25100.400000000001</v>
+        <v>24575.8</v>
       </c>
       <c r="U26">
-        <v>4075.3</v>
+        <v>2602.1</v>
       </c>
       <c r="V26">
-        <v>276.8</v>
+        <v>1430.9</v>
       </c>
       <c r="W26">
-        <v>-171.3</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>579.4</v>
+        <v>-762.7</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>572</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="AA26">
-        <v>368.4</v>
+        <v>801.1</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>1009.9</v>
+        <v>783.1</v>
       </c>
       <c r="D27">
-        <v>22525.3</v>
+        <v>15088</v>
       </c>
       <c r="E27">
-        <v>5773</v>
+        <v>2790.4</v>
       </c>
       <c r="F27">
-        <v>4982.5</v>
+        <v>3658.2</v>
       </c>
       <c r="G27">
-        <v>37981.800000000003</v>
+        <v>14018.4</v>
       </c>
       <c r="H27">
-        <v>68943.5</v>
+        <v>53489.2</v>
       </c>
       <c r="I27">
-        <v>13930.1</v>
+        <v>10861.5</v>
       </c>
       <c r="J27">
-        <v>15467.3</v>
+        <v>6585.6</v>
       </c>
       <c r="K27">
-        <v>1773.4</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-1238.9000000000001</v>
+        <v>-135.6</v>
       </c>
       <c r="M27">
-        <v>-401.1</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="N27">
-        <v>23174.2</v>
+        <v>15755.2</v>
       </c>
       <c r="O27">
-        <v>42851.6</v>
+        <v>28349.8</v>
       </c>
       <c r="P27">
-        <v>18393.5</v>
+        <v>7106.5</v>
       </c>
       <c r="Q27">
-        <v>2697.1</v>
+        <v>799.9</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>26091.9</v>
+        <v>25139.4</v>
       </c>
       <c r="U27">
-        <v>6772.4</v>
+        <v>3402</v>
       </c>
       <c r="V27">
-        <v>2688.2</v>
+        <v>1981.1</v>
       </c>
       <c r="W27">
-        <v>-172.2</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1234.3</v>
+        <v>-519</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-956.8</v>
+        <v>-747.6</v>
       </c>
       <c r="AA27">
-        <v>1009.9</v>
+        <v>783.1</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>855.3</v>
+        <v>835.2</v>
       </c>
       <c r="D28">
-        <v>22420.7</v>
+        <v>15267.9</v>
       </c>
       <c r="E28">
-        <v>6105.7</v>
+        <v>2626.8</v>
       </c>
       <c r="F28">
-        <v>4503.5</v>
+        <v>3862.5</v>
       </c>
       <c r="G28">
-        <v>37130.699999999997</v>
+        <v>15151.8</v>
       </c>
       <c r="H28">
-        <v>68237.600000000006</v>
+        <v>54194.1</v>
       </c>
       <c r="I28">
-        <v>14302.3</v>
+        <v>10666.6</v>
       </c>
       <c r="J28">
-        <v>15088</v>
+        <v>7652.2</v>
       </c>
       <c r="K28">
-        <v>1793.7</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>22567.9</v>
+        <v>15769.5</v>
       </c>
       <c r="O28">
-        <v>41805.9</v>
+        <v>29205.3</v>
       </c>
       <c r="P28">
-        <v>17506.099999999999</v>
+        <v>8172.2</v>
       </c>
       <c r="Q28">
-        <v>-2211.1999999999998</v>
+        <v>803.1</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>26431.7</v>
+        <v>24988.799999999999</v>
       </c>
       <c r="U28">
-        <v>4561.2</v>
+        <v>4205.1000000000004</v>
       </c>
       <c r="V28">
-        <v>393.1</v>
+        <v>725.9</v>
       </c>
       <c r="W28">
-        <v>-171.8</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-1563.8</v>
+        <v>337.6</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-892.7</v>
+        <v>39.6</v>
       </c>
       <c r="AA28">
-        <v>855.1</v>
+        <v>835.2</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>746.8</v>
+        <v>868</v>
       </c>
       <c r="D29">
-        <v>22426</v>
+        <v>15242</v>
       </c>
       <c r="E29">
-        <v>5692</v>
+        <v>2801</v>
       </c>
       <c r="F29">
-        <v>4322</v>
+        <v>3862</v>
       </c>
       <c r="G29">
-        <v>36973.699999999997</v>
+        <v>13687.7</v>
       </c>
       <c r="H29">
-        <v>68309.899999999994</v>
+        <v>52899.7</v>
       </c>
       <c r="I29">
-        <v>14961.9</v>
+        <v>11118</v>
       </c>
       <c r="J29">
-        <v>13777.3</v>
+        <v>8381</v>
       </c>
       <c r="K29">
-        <v>2086.4</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>24412.5</v>
+        <v>15079</v>
       </c>
       <c r="O29">
-        <v>42361.599999999999</v>
+        <v>29225.8</v>
       </c>
       <c r="P29">
-        <v>17137.099999999999</v>
+        <v>8702.5</v>
       </c>
       <c r="Q29">
-        <v>1536.1</v>
+        <v>-1381.1</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>25948.3</v>
+        <v>23673.9</v>
       </c>
       <c r="U29">
-        <v>6097.2</v>
+        <v>2824</v>
       </c>
       <c r="V29">
-        <v>2404.6999999999998</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="W29">
-        <v>-181</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-1676.5</v>
+        <v>-1748.4</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>685.5</v>
+        <v>94.5</v>
       </c>
       <c r="AA29">
-        <v>747</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1231</v>
+        <v>859.1</v>
       </c>
       <c r="D30">
-        <v>22677</v>
+        <v>15570</v>
       </c>
       <c r="E30">
-        <v>3605</v>
+        <v>2870.1</v>
       </c>
       <c r="F30">
-        <v>4005</v>
+        <v>3748</v>
       </c>
       <c r="G30">
-        <v>36263</v>
+        <v>13031.8</v>
       </c>
       <c r="H30">
-        <v>70540</v>
+        <v>52060</v>
       </c>
       <c r="I30">
-        <v>16036</v>
+        <v>10593.5</v>
       </c>
       <c r="J30">
-        <v>17382</v>
+        <v>9023.5</v>
       </c>
       <c r="K30">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>23356</v>
+        <v>14388.2</v>
       </c>
       <c r="O30">
-        <v>44037</v>
+        <v>29069.599999999999</v>
       </c>
       <c r="P30">
-        <v>20386</v>
+        <v>9043.9</v>
       </c>
       <c r="Q30">
-        <v>-2488</v>
+        <v>-56.1</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>56000</v>
+        <v>41700</v>
       </c>
       <c r="T30">
-        <v>26503</v>
+        <v>22990.400000000001</v>
       </c>
       <c r="U30">
-        <v>3609</v>
+        <v>2767.9</v>
       </c>
       <c r="V30">
-        <v>-1301</v>
+        <v>1104.3</v>
       </c>
       <c r="W30">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2433</v>
+        <v>-1480.1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-1749</v>
+        <v>359.4</v>
       </c>
       <c r="AA30">
-        <v>1231</v>
+        <v>859.1</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1312</v>
+        <v>588.1</v>
       </c>
       <c r="D31">
-        <v>22537</v>
+        <v>15553.7</v>
       </c>
       <c r="E31">
-        <v>6255.9</v>
+        <v>3167</v>
       </c>
       <c r="F31">
-        <v>5491</v>
+        <v>3437.2</v>
       </c>
       <c r="G31">
-        <v>36974.1</v>
+        <v>13409.5</v>
       </c>
       <c r="H31">
-        <v>73300.399999999994</v>
+        <v>51555.7</v>
       </c>
       <c r="I31">
-        <v>16447.3</v>
+        <v>11206</v>
       </c>
       <c r="J31">
-        <v>18110.099999999999</v>
+        <v>9266.5</v>
       </c>
       <c r="K31">
-        <v>1736.8</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-1887</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-663</v>
+        <v>-2.7</v>
       </c>
       <c r="N31">
-        <v>24755.9</v>
+        <v>15291.6</v>
       </c>
       <c r="O31">
-        <v>46288</v>
+        <v>30051.599999999999</v>
       </c>
       <c r="P31">
-        <v>20497.7</v>
+        <v>9286.4</v>
       </c>
       <c r="Q31">
-        <v>1022</v>
+        <v>-215.8</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>27012.400000000001</v>
+        <v>21504.1</v>
       </c>
       <c r="U31">
-        <v>4630.6000000000004</v>
+        <v>2552.1</v>
       </c>
       <c r="V31">
-        <v>2215</v>
+        <v>1041.2</v>
       </c>
       <c r="W31">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-627</v>
+        <v>-1707.2</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1152</v>
+        <v>427.6</v>
       </c>
       <c r="AA31">
-        <v>1312</v>
+        <v>588.1</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1054</v>
+        <v>750.5</v>
       </c>
       <c r="D32">
-        <v>22944</v>
+        <v>15666.8</v>
       </c>
       <c r="E32">
-        <v>4268.3</v>
+        <v>3203.4</v>
       </c>
       <c r="F32">
-        <v>5216</v>
+        <v>3711.2</v>
       </c>
       <c r="G32">
-        <v>37370.400000000001</v>
+        <v>13040.4</v>
       </c>
       <c r="H32">
-        <v>74367.399999999994</v>
+        <v>50975.9</v>
       </c>
       <c r="I32">
-        <v>16558.599999999999</v>
+        <v>10790.2</v>
       </c>
       <c r="J32">
-        <v>17515.400000000001</v>
+        <v>9750.1</v>
       </c>
       <c r="K32">
-        <v>1744.3</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>24505.7</v>
+        <v>14558.2</v>
       </c>
       <c r="O32">
-        <v>45642.400000000001</v>
+        <v>29721.4</v>
       </c>
       <c r="P32">
-        <v>19909.900000000001</v>
+        <v>9769.2999999999993</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>-278.3</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>28725</v>
+        <v>21254.5</v>
       </c>
       <c r="U32">
-        <v>4682</v>
+        <v>2273.8000000000002</v>
       </c>
       <c r="V32">
-        <v>542</v>
+        <v>118.2</v>
       </c>
       <c r="W32">
-        <v>-196</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>287</v>
+        <v>-389.2</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-86</v>
+        <v>122.8</v>
       </c>
       <c r="AA32">
-        <v>1054</v>
+        <v>750.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>959</v>
+        <v>820.7</v>
       </c>
       <c r="D33">
-        <v>23251</v>
+        <v>14961</v>
       </c>
       <c r="E33">
-        <v>4312</v>
+        <v>3265.5</v>
       </c>
       <c r="F33">
-        <v>5066</v>
+        <v>3215.4</v>
       </c>
       <c r="G33">
-        <v>37108</v>
+        <v>12677.9</v>
       </c>
       <c r="H33">
-        <v>74445</v>
+        <v>49758.6</v>
       </c>
       <c r="I33">
-        <v>16944</v>
+        <v>10751.3</v>
       </c>
       <c r="J33">
-        <v>17300</v>
+        <v>8491.2999999999993</v>
       </c>
       <c r="K33">
-        <v>2011</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>24174</v>
+        <v>15062.1</v>
       </c>
       <c r="O33">
-        <v>45351</v>
+        <v>28085.3</v>
       </c>
       <c r="P33">
-        <v>20160</v>
+        <v>9215</v>
       </c>
       <c r="Q33">
-        <v>-422</v>
+        <v>-3.2</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>29094</v>
+        <v>21673.3</v>
       </c>
       <c r="U33">
-        <v>4260</v>
+        <v>2270.6</v>
       </c>
       <c r="V33">
-        <v>607</v>
+        <v>898.5</v>
       </c>
       <c r="W33">
-        <v>-195</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-340</v>
+        <v>-902.5</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-209</v>
+        <v>89.5</v>
       </c>
       <c r="AA33">
-        <v>960</v>
+        <v>820.7</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>425</v>
+        <v>331.4</v>
       </c>
       <c r="D34">
-        <v>23359</v>
+        <v>15069.6</v>
       </c>
       <c r="E34">
-        <v>4465</v>
+        <v>3042.9</v>
       </c>
       <c r="F34">
-        <v>4423</v>
+        <v>3144.9</v>
       </c>
       <c r="G34">
-        <v>34321</v>
+        <v>12130</v>
       </c>
       <c r="H34">
-        <v>71571</v>
+        <v>48403.199999999997</v>
       </c>
       <c r="I34">
-        <v>15078</v>
+        <v>10732.5</v>
       </c>
       <c r="J34">
-        <v>17217</v>
+        <v>7833.9</v>
       </c>
       <c r="K34">
-        <v>1749</v>
+        <v>627</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>21965</v>
+        <v>15020.3</v>
       </c>
       <c r="O34">
-        <v>43030</v>
+        <v>26971.5</v>
       </c>
       <c r="P34">
-        <v>19815</v>
+        <v>9370.6</v>
       </c>
       <c r="Q34">
-        <v>-326</v>
+        <v>-86.7</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>63900</v>
+        <v>42900</v>
       </c>
       <c r="T34">
-        <v>28541</v>
+        <v>21431.7</v>
       </c>
       <c r="U34">
-        <v>3934</v>
+        <v>2183.9</v>
       </c>
       <c r="V34">
-        <v>463</v>
+        <v>477.5</v>
       </c>
       <c r="W34">
-        <v>-193</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1561</v>
+        <v>-736.7</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1072</v>
+        <v>176.8</v>
       </c>
       <c r="AA34">
-        <v>425</v>
+        <v>331.4</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1551</v>
+        <v>580.4</v>
       </c>
       <c r="D35">
-        <v>24666</v>
+        <v>15143.3</v>
       </c>
       <c r="E35">
-        <v>5049</v>
+        <v>3525.4</v>
       </c>
       <c r="F35">
-        <v>5384</v>
+        <v>3418.9</v>
       </c>
       <c r="G35">
-        <v>36611</v>
+        <v>12483.2</v>
       </c>
       <c r="H35">
-        <v>74523</v>
+        <v>49414.8</v>
       </c>
       <c r="I35">
-        <v>14848</v>
+        <v>10912.7</v>
       </c>
       <c r="J35">
-        <v>17396</v>
+        <v>8527.1</v>
       </c>
       <c r="K35">
-        <v>1685</v>
+        <v>100</v>
       </c>
       <c r="L35">
-        <v>-2760</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-63</v>
+        <v>-501.2</v>
       </c>
       <c r="N35">
-        <v>22682</v>
+        <v>15340.8</v>
       </c>
       <c r="O35">
-        <v>44525</v>
+        <v>27906.799999999999</v>
       </c>
       <c r="P35">
-        <v>20626</v>
+        <v>9337.6</v>
       </c>
       <c r="Q35">
-        <v>548</v>
+        <v>194.2</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>29998</v>
+        <v>21508</v>
       </c>
       <c r="U35">
-        <v>4482</v>
+        <v>2378.1</v>
       </c>
       <c r="V35">
-        <v>1630</v>
+        <v>1192</v>
       </c>
       <c r="W35">
-        <v>-206</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-429</v>
+        <v>-206.9</v>
       </c>
       <c r="Y35">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-440</v>
+        <v>-772.8</v>
       </c>
       <c r="AA35">
-        <v>1551</v>
+        <v>580.4</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1139</v>
+        <v>693.5</v>
       </c>
       <c r="D36">
-        <v>25466</v>
+        <v>15413.2</v>
       </c>
       <c r="E36">
-        <v>4751</v>
+        <v>3457.9</v>
       </c>
       <c r="F36">
-        <v>5098</v>
+        <v>3563.3</v>
       </c>
       <c r="G36">
-        <v>37805</v>
+        <v>25001.4</v>
       </c>
       <c r="H36">
-        <v>75851</v>
+        <v>49344.3</v>
       </c>
       <c r="I36">
-        <v>15449</v>
+        <v>10270.299999999999</v>
       </c>
       <c r="J36">
-        <v>17436</v>
+        <v>8513.7000000000007</v>
       </c>
       <c r="K36">
-        <v>1574</v>
+        <v>100</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>23090</v>
+        <v>14342.3</v>
       </c>
       <c r="O36">
-        <v>45058</v>
+        <v>27091.4</v>
       </c>
       <c r="P36">
-        <v>20559</v>
+        <v>9171.7999999999993</v>
       </c>
       <c r="Q36">
-        <v>-404</v>
+        <v>-653.5</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>30793</v>
+        <v>22252.9</v>
       </c>
       <c r="U36">
-        <v>4078</v>
+        <v>1724.6</v>
       </c>
       <c r="V36">
-        <v>1437</v>
+        <v>377.6</v>
       </c>
       <c r="W36">
-        <v>-206</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-677</v>
+        <v>-864.3</v>
       </c>
       <c r="Y36">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-944</v>
+        <v>-157.19999999999999</v>
       </c>
       <c r="AA36">
-        <v>1139</v>
+        <v>693.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1183</v>
+        <v>730.2</v>
       </c>
       <c r="D37">
-        <v>26674</v>
+        <v>15425.1</v>
       </c>
       <c r="E37">
-        <v>4782</v>
+        <v>3276.3</v>
       </c>
       <c r="F37">
-        <v>5921</v>
+        <v>3872.3</v>
       </c>
       <c r="G37">
-        <v>39504</v>
+        <v>25362.5</v>
       </c>
       <c r="H37">
-        <v>77809</v>
+        <v>49497.5</v>
       </c>
       <c r="I37">
-        <v>16002</v>
+        <v>10152.6</v>
       </c>
       <c r="J37">
-        <v>18820</v>
+        <v>8384.4</v>
       </c>
       <c r="K37">
-        <v>1175</v>
+        <v>100</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>23234</v>
+        <v>14126.4</v>
       </c>
       <c r="O37">
-        <v>46477</v>
+        <v>26630.1</v>
       </c>
       <c r="P37">
-        <v>21335</v>
+        <v>8862.2000000000007</v>
       </c>
       <c r="Q37">
-        <v>112</v>
+        <v>117.6</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>31332</v>
+        <v>22867.4</v>
       </c>
       <c r="U37">
-        <v>4190</v>
+        <v>1842.2</v>
       </c>
       <c r="V37">
-        <v>1667</v>
+        <v>1439.6</v>
       </c>
       <c r="W37">
-        <v>-204</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>144</v>
+        <v>-1121.4000000000001</v>
       </c>
       <c r="Y37">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1511</v>
+        <v>-31.4</v>
       </c>
       <c r="AA37">
-        <v>1183</v>
+        <v>730.2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>934</v>
+        <v>2741.8</v>
       </c>
       <c r="D38">
-        <v>27406</v>
+        <v>15254.2</v>
       </c>
       <c r="E38">
-        <v>5014</v>
+        <v>3281</v>
       </c>
       <c r="F38">
-        <v>6023</v>
+        <v>3261.5</v>
       </c>
       <c r="G38">
-        <v>39033</v>
+        <v>28070.7</v>
       </c>
       <c r="H38">
-        <v>77453</v>
+        <v>52125.4</v>
       </c>
       <c r="I38">
-        <v>16090</v>
+        <v>10124.799999999999</v>
       </c>
       <c r="J38">
-        <v>17787</v>
+        <v>8338.6</v>
       </c>
       <c r="K38">
-        <v>700</v>
+        <v>396.6</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>23532</v>
+        <v>14673.7</v>
       </c>
       <c r="O38">
-        <v>45725</v>
+        <v>27262.1</v>
       </c>
       <c r="P38">
-        <v>20725</v>
+        <v>8796</v>
       </c>
       <c r="Q38">
-        <v>747</v>
+        <v>2973.9</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>70600</v>
+        <v>40500</v>
       </c>
       <c r="T38">
-        <v>31728</v>
+        <v>24863.3</v>
       </c>
       <c r="U38">
-        <v>4937</v>
+        <v>4816.1000000000004</v>
       </c>
       <c r="V38">
-        <v>1327</v>
+        <v>29.7</v>
       </c>
       <c r="W38">
-        <v>-202</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1304</v>
+        <v>-1210.2</v>
       </c>
       <c r="Y38">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>976</v>
+        <v>-364.2</v>
       </c>
       <c r="AA38">
-        <v>934</v>
+        <v>2741.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1523</v>
+        <v>876.8</v>
       </c>
       <c r="D39">
-        <v>29621</v>
+        <v>15072.9</v>
       </c>
       <c r="E39">
-        <v>5786</v>
+        <v>3298.6</v>
       </c>
       <c r="F39">
-        <v>8132</v>
+        <v>3690.6</v>
       </c>
       <c r="G39">
-        <v>41256</v>
+        <v>27116.5</v>
       </c>
       <c r="H39">
-        <v>82399</v>
+        <v>51180.9</v>
       </c>
       <c r="I39">
-        <v>18212</v>
+        <v>9886.2999999999993</v>
       </c>
       <c r="J39">
-        <v>19005</v>
+        <v>7630.4</v>
       </c>
       <c r="K39">
-        <v>1502</v>
+        <v>602</v>
       </c>
       <c r="L39">
-        <v>-700</v>
+        <v>-50.8</v>
       </c>
       <c r="M39">
-        <v>-52</v>
+        <v>-15.1</v>
       </c>
       <c r="N39">
-        <v>27039</v>
+        <v>14810.5</v>
       </c>
       <c r="O39">
-        <v>50706</v>
+        <v>26661.7</v>
       </c>
       <c r="P39">
-        <v>23106</v>
+        <v>8992.2999999999993</v>
       </c>
       <c r="Q39">
-        <v>408</v>
+        <v>-1289.9000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>31693</v>
+        <v>24519.200000000001</v>
       </c>
       <c r="U39">
-        <v>5345</v>
+        <v>3526.2</v>
       </c>
       <c r="V39">
-        <v>2515</v>
+        <v>-322.89999999999998</v>
       </c>
       <c r="W39">
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>679</v>
+        <v>-1157.7</v>
       </c>
       <c r="Y39">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-571</v>
+        <v>519</v>
       </c>
       <c r="AA39">
-        <v>1523</v>
+        <v>876.8</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>2276</v>
+        <v>722.4</v>
       </c>
       <c r="D40">
-        <v>29264</v>
+        <v>14431.3</v>
       </c>
       <c r="E40">
-        <v>5456</v>
+        <v>3499.5</v>
       </c>
       <c r="F40">
-        <v>9717</v>
+        <v>3445.4</v>
       </c>
       <c r="G40">
-        <v>46764</v>
+        <v>26081.7</v>
       </c>
       <c r="H40">
-        <v>87976</v>
+        <v>50160</v>
       </c>
       <c r="I40">
-        <v>18721</v>
+        <v>9714.9</v>
       </c>
       <c r="J40">
-        <v>19873</v>
+        <v>7347.1</v>
       </c>
       <c r="K40">
-        <v>1114</v>
+        <v>834.4</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>28522</v>
+        <v>14836.5</v>
       </c>
       <c r="O40">
-        <v>53521</v>
+        <v>26369.5</v>
       </c>
       <c r="P40">
-        <v>23598</v>
+        <v>9295.2999999999993</v>
       </c>
       <c r="Q40">
-        <v>683</v>
+        <v>-1498.3</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>34455</v>
+        <v>23790.5</v>
       </c>
       <c r="U40">
-        <v>6028</v>
+        <v>2027.9</v>
       </c>
       <c r="V40">
-        <v>5510</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="W40">
-        <v>-242</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>105</v>
+        <v>-1239.3</v>
       </c>
       <c r="Y40">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-4004</v>
+        <v>-257.89999999999998</v>
       </c>
       <c r="AA40">
-        <v>2276</v>
+        <v>722.4</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>222</v>
+        <v>739.1</v>
       </c>
       <c r="D41">
-        <v>31158</v>
+        <v>14572.3</v>
       </c>
       <c r="E41">
-        <v>5343</v>
+        <v>3176.4</v>
       </c>
       <c r="F41">
-        <v>8237</v>
+        <v>3366.7</v>
       </c>
       <c r="G41">
-        <v>45450</v>
+        <v>26939.4</v>
       </c>
       <c r="H41">
-        <v>86574</v>
+        <v>51032.4</v>
       </c>
       <c r="I41">
-        <v>19606</v>
+        <v>9472</v>
       </c>
       <c r="J41">
-        <v>19094</v>
+        <v>8217.2000000000007</v>
       </c>
       <c r="K41">
-        <v>1169</v>
+        <v>994.9</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>28561</v>
+        <v>14141.5</v>
       </c>
       <c r="O41">
-        <v>52653</v>
+        <v>26670.7</v>
       </c>
       <c r="P41">
-        <v>22852</v>
+        <v>9918.6</v>
       </c>
       <c r="Q41">
-        <v>-2044</v>
+        <v>218.3</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>33921</v>
+        <v>24361.7</v>
       </c>
       <c r="U41">
-        <v>3984</v>
+        <v>2246.1999999999998</v>
       </c>
       <c r="V41">
-        <v>-1150</v>
+        <v>896.5</v>
       </c>
       <c r="W41">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-984</v>
+        <v>167.5</v>
       </c>
       <c r="Y41">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>369</v>
+        <v>-553.70000000000005</v>
       </c>
       <c r="AA41">
-        <v>222</v>
+        <v>739.1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>548.79999999999995</v>
+      </c>
+      <c r="D42">
+        <v>14622</v>
+      </c>
+      <c r="E42">
+        <v>3041.6</v>
+      </c>
+      <c r="F42">
+        <v>3265.4</v>
+      </c>
+      <c r="G42">
+        <v>26140.799999999999</v>
+      </c>
+      <c r="H42">
+        <v>50166.9</v>
+      </c>
+      <c r="I42">
+        <v>9760.1</v>
+      </c>
+      <c r="J42">
+        <v>8147.8</v>
+      </c>
+      <c r="K42">
+        <v>1001.5</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>14009.5</v>
+      </c>
+      <c r="O42">
+        <v>26354.3</v>
+      </c>
+      <c r="P42">
+        <v>9855.2000000000007</v>
+      </c>
+      <c r="Q42">
+        <v>-457.4</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>37500</v>
+      </c>
+      <c r="T42">
+        <v>23812.6</v>
+      </c>
+      <c r="U42">
+        <v>1788.8</v>
+      </c>
+      <c r="V42">
+        <v>587</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-939.8</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>52.3</v>
+      </c>
+      <c r="AA42">
+        <v>548.79999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>926.6</v>
+      </c>
+      <c r="D43">
+        <v>14894.3</v>
+      </c>
+      <c r="E43">
+        <v>3303.4</v>
+      </c>
+      <c r="F43">
+        <v>3666.3</v>
+      </c>
+      <c r="G43">
+        <v>26819.4</v>
+      </c>
+      <c r="H43">
+        <v>50918</v>
+      </c>
+      <c r="I43">
+        <v>9799.2000000000007</v>
+      </c>
+      <c r="J43">
+        <v>8542</v>
+      </c>
+      <c r="K43">
+        <v>889.8</v>
+      </c>
+      <c r="L43">
+        <v>-211.7</v>
+      </c>
+      <c r="M43">
+        <v>-700.8</v>
+      </c>
+      <c r="N43">
+        <v>14160.3</v>
+      </c>
+      <c r="O43">
+        <v>26939.9</v>
+      </c>
+      <c r="P43">
+        <v>9791</v>
+      </c>
+      <c r="Q43">
+        <v>613.20000000000005</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>23978.1</v>
+      </c>
+      <c r="U43">
+        <v>2402</v>
+      </c>
+      <c r="V43">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-92.8</v>
+      </c>
+      <c r="X43">
+        <v>-785.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>285.8</v>
+      </c>
+      <c r="AA43">
+        <v>926.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>701.6</v>
+      </c>
+      <c r="D44">
+        <v>15100.7</v>
+      </c>
+      <c r="E44">
+        <v>3100.9</v>
+      </c>
+      <c r="F44">
+        <v>3178.7</v>
+      </c>
+      <c r="G44">
+        <v>26756.799999999999</v>
+      </c>
+      <c r="H44">
+        <v>50877.2</v>
+      </c>
+      <c r="I44">
+        <v>9952.9</v>
+      </c>
+      <c r="J44">
+        <v>8292.1</v>
+      </c>
+      <c r="K44">
+        <v>911.8</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>14107.3</v>
+      </c>
+      <c r="O44">
+        <v>26695.9</v>
+      </c>
+      <c r="P44">
+        <v>9660.2000000000007</v>
+      </c>
+      <c r="Q44">
+        <v>-702.2</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>24181.3</v>
+      </c>
+      <c r="U44">
+        <v>1699.8</v>
+      </c>
+      <c r="V44">
+        <v>771.8</v>
+      </c>
+      <c r="W44">
+        <v>-91.1</v>
+      </c>
+      <c r="X44">
+        <v>-723.5</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-619</v>
+      </c>
+      <c r="AA44">
+        <v>701.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>683.2</v>
+      </c>
+      <c r="D45">
+        <v>15398</v>
+      </c>
+      <c r="E45">
+        <v>3309.8</v>
+      </c>
+      <c r="F45">
+        <v>3335.1</v>
+      </c>
+      <c r="G45">
+        <v>27552.3</v>
+      </c>
+      <c r="H45">
+        <v>52549.9</v>
+      </c>
+      <c r="I45">
+        <v>10333.6</v>
+      </c>
+      <c r="J45">
+        <v>8622.2999999999993</v>
+      </c>
+      <c r="K45">
+        <v>873.1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>15786.3</v>
+      </c>
+      <c r="O45">
+        <v>28831.8</v>
+      </c>
+      <c r="P45">
+        <v>10769.5</v>
+      </c>
+      <c r="Q45">
+        <v>808.6</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>23718.1</v>
+      </c>
+      <c r="U45">
+        <v>2508.4</v>
+      </c>
+      <c r="V45">
+        <v>1429.8</v>
+      </c>
+      <c r="W45">
+        <v>-88.2</v>
+      </c>
+      <c r="X45">
+        <v>234.1</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-153.1</v>
+      </c>
+      <c r="AA45">
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>335.3</v>
+      </c>
+      <c r="D46">
+        <v>15317.7</v>
+      </c>
+      <c r="E46">
+        <v>3402.9</v>
+      </c>
+      <c r="F46">
+        <v>2883.1</v>
+      </c>
+      <c r="G46">
+        <v>27097.4</v>
+      </c>
+      <c r="H46">
+        <v>52163.199999999997</v>
+      </c>
+      <c r="I46">
+        <v>10946.4</v>
+      </c>
+      <c r="J46">
+        <v>8465.7000000000007</v>
+      </c>
+      <c r="K46">
+        <v>972.5</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>15898.7</v>
+      </c>
+      <c r="O46">
+        <v>28875</v>
+      </c>
+      <c r="P46">
+        <v>10712.7</v>
+      </c>
+      <c r="Q46">
+        <v>-306.8</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>37700</v>
+      </c>
+      <c r="T46">
+        <v>23288.2</v>
+      </c>
+      <c r="U46">
+        <v>2201.6</v>
+      </c>
+      <c r="V46">
+        <v>57.9</v>
+      </c>
+      <c r="W46">
+        <v>-85.7</v>
+      </c>
+      <c r="X46">
+        <v>-744</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>662.3</v>
+      </c>
+      <c r="AA46">
+        <v>335.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>856.5</v>
+      </c>
+      <c r="D47">
+        <v>15415.2</v>
+      </c>
+      <c r="E47">
+        <v>3722.1</v>
+      </c>
+      <c r="F47">
+        <v>3643.3</v>
+      </c>
+      <c r="G47">
+        <v>27543.599999999999</v>
+      </c>
+      <c r="H47">
+        <v>52496.5</v>
+      </c>
+      <c r="I47">
+        <v>10531.6</v>
+      </c>
+      <c r="J47">
+        <v>8462.5</v>
+      </c>
+      <c r="K47">
+        <v>815.9</v>
+      </c>
+      <c r="L47">
+        <v>-256.60000000000002</v>
+      </c>
+      <c r="M47">
+        <v>-350.8</v>
+      </c>
+      <c r="N47">
+        <v>15955.1</v>
+      </c>
+      <c r="O47">
+        <v>28968.1</v>
+      </c>
+      <c r="P47">
+        <v>10189.200000000001</v>
+      </c>
+      <c r="Q47">
+        <v>77.5</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>23528.400000000001</v>
+      </c>
+      <c r="U47">
+        <v>2279.1</v>
+      </c>
+      <c r="V47">
+        <v>1223.0999999999999</v>
+      </c>
+      <c r="W47">
+        <v>-95.8</v>
+      </c>
+      <c r="X47">
+        <v>-1167</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-10.9</v>
+      </c>
+      <c r="AA47">
+        <v>856.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>643.6</v>
+      </c>
+      <c r="D48">
+        <v>15407.3</v>
+      </c>
+      <c r="E48">
+        <v>3890.7</v>
+      </c>
+      <c r="F48">
+        <v>3314.2</v>
+      </c>
+      <c r="G48">
+        <v>28470.1</v>
+      </c>
+      <c r="H48">
+        <v>54535</v>
+      </c>
+      <c r="I48">
+        <v>10543.5</v>
+      </c>
+      <c r="J48">
+        <v>10135.6</v>
+      </c>
+      <c r="K48">
+        <v>966.4</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>16177.8</v>
+      </c>
+      <c r="O48">
+        <v>30891.200000000001</v>
+      </c>
+      <c r="P48">
+        <v>11915.7</v>
+      </c>
+      <c r="Q48">
+        <v>-326</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>23643.8</v>
+      </c>
+      <c r="U48">
+        <v>1953.1</v>
+      </c>
+      <c r="V48">
+        <v>521.5</v>
+      </c>
+      <c r="W48">
+        <v>-93.5</v>
+      </c>
+      <c r="X48">
+        <v>1141.8</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-930.5</v>
+      </c>
+      <c r="AA48">
+        <v>643.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>691.2</v>
+      </c>
+      <c r="D49">
+        <v>15353.1</v>
+      </c>
+      <c r="E49">
+        <v>3645.7</v>
+      </c>
+      <c r="F49">
+        <v>3368.3</v>
+      </c>
+      <c r="G49">
+        <v>29640.3</v>
+      </c>
+      <c r="H49">
+        <v>55817.9</v>
+      </c>
+      <c r="I49">
+        <v>10461.5</v>
+      </c>
+      <c r="J49">
+        <v>13395.7</v>
+      </c>
+      <c r="K49">
+        <v>893</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>14083.1</v>
+      </c>
+      <c r="O49">
+        <v>32001.4</v>
+      </c>
+      <c r="P49">
+        <v>14288.9</v>
+      </c>
+      <c r="Q49">
+        <v>489</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>23816.5</v>
+      </c>
+      <c r="U49">
+        <v>2442.1</v>
+      </c>
+      <c r="V49">
+        <v>240.2</v>
+      </c>
+      <c r="W49">
+        <v>-90.7</v>
+      </c>
+      <c r="X49">
+        <v>1566.3</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-1147.3</v>
+      </c>
+      <c r="AA49">
+        <v>691.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3687.4</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>29347.5</v>
+      </c>
+      <c r="H50">
+        <v>58955.4</v>
+      </c>
+      <c r="I50">
+        <v>11680.2</v>
+      </c>
+      <c r="J50">
+        <v>14170.8</v>
+      </c>
+      <c r="K50">
+        <v>814.7</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>15995</v>
+      </c>
+      <c r="O50">
+        <v>35152.699999999997</v>
+      </c>
+      <c r="P50">
+        <v>15542.6</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>43500</v>
+      </c>
+      <c r="T50">
+        <v>23802.7</v>
+      </c>
+      <c r="U50">
+        <v>2475.3000000000002</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>885.2</v>
+      </c>
+      <c r="D51">
+        <v>17576</v>
+      </c>
+      <c r="E51">
+        <v>4098.8999999999996</v>
+      </c>
+      <c r="F51">
+        <v>3827.3</v>
+      </c>
+      <c r="G51">
+        <v>28660.7</v>
+      </c>
+      <c r="H51">
+        <v>59408.6</v>
+      </c>
+      <c r="I51">
+        <v>11569.2</v>
+      </c>
+      <c r="J51">
+        <v>14030</v>
+      </c>
+      <c r="K51">
+        <v>927.5</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-556.9</v>
+      </c>
+      <c r="N51">
+        <v>16030.1</v>
+      </c>
+      <c r="O51">
+        <v>35090.6</v>
+      </c>
+      <c r="P51">
+        <v>15356.9</v>
+      </c>
+      <c r="Q51">
+        <v>-819.3</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>24318</v>
+      </c>
+      <c r="U51">
+        <v>1665.3</v>
+      </c>
+      <c r="V51">
+        <v>956.9</v>
+      </c>
+      <c r="W51">
+        <v>-113.4</v>
+      </c>
+      <c r="X51">
+        <v>-579.1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-994.6</v>
+      </c>
+      <c r="AA51">
+        <v>885.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>800.1</v>
+      </c>
+      <c r="D52">
+        <v>17690.3</v>
+      </c>
+      <c r="E52">
+        <v>4330</v>
+      </c>
+      <c r="F52">
+        <v>3857.7</v>
+      </c>
+      <c r="G52">
+        <v>28900.799999999999</v>
+      </c>
+      <c r="H52">
+        <v>59612.3</v>
+      </c>
+      <c r="I52">
+        <v>11792.6</v>
+      </c>
+      <c r="J52">
+        <v>14091.5</v>
+      </c>
+      <c r="K52">
+        <v>1020.6</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>16034.1</v>
+      </c>
+      <c r="O52">
+        <v>35079.800000000003</v>
+      </c>
+      <c r="P52">
+        <v>15511.7</v>
+      </c>
+      <c r="Q52">
+        <v>-318</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>24532.5</v>
+      </c>
+      <c r="U52">
+        <v>1347.3</v>
+      </c>
+      <c r="V52">
+        <v>425.2</v>
+      </c>
+      <c r="W52">
+        <v>-112.7</v>
+      </c>
+      <c r="X52">
+        <v>123.9</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-628.9</v>
+      </c>
+      <c r="AA52">
+        <v>800.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>656.2</v>
+      </c>
+      <c r="D53">
+        <v>17855.5</v>
+      </c>
+      <c r="E53">
+        <v>4014</v>
+      </c>
+      <c r="F53">
+        <v>3780.5</v>
+      </c>
+      <c r="G53">
+        <v>29596.9</v>
+      </c>
+      <c r="H53">
+        <v>60263.5</v>
+      </c>
+      <c r="I53">
+        <v>11801.3</v>
+      </c>
+      <c r="J53">
+        <v>14514</v>
+      </c>
+      <c r="K53">
+        <v>1187.7</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>16042.4</v>
+      </c>
+      <c r="O53">
+        <v>35455.4</v>
+      </c>
+      <c r="P53">
+        <v>15701.8</v>
+      </c>
+      <c r="Q53">
+        <v>838.4</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>24808.1</v>
+      </c>
+      <c r="U53">
+        <v>2185.6999999999998</v>
+      </c>
+      <c r="V53">
+        <v>1397.4</v>
+      </c>
+      <c r="W53">
+        <v>-111.4</v>
+      </c>
+      <c r="X53">
+        <v>-536.79999999999995</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>331.5</v>
+      </c>
+      <c r="AA53">
+        <v>656.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3968.7</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>29745.8</v>
+      </c>
+      <c r="H54">
+        <v>59574.5</v>
+      </c>
+      <c r="I54">
+        <v>11689.8</v>
+      </c>
+      <c r="J54">
+        <v>13573.6</v>
+      </c>
+      <c r="K54">
+        <v>1369.7</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>16351.5</v>
+      </c>
+      <c r="O54">
+        <v>34809.300000000003</v>
+      </c>
+      <c r="P54">
+        <v>15461.3</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>48200</v>
+      </c>
+      <c r="T54">
+        <v>24765.200000000001</v>
+      </c>
+      <c r="U54">
+        <v>1582.1</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>701</v>
+      </c>
+      <c r="D55">
+        <v>17859.400000000001</v>
+      </c>
+      <c r="E55">
+        <v>4457.5</v>
+      </c>
+      <c r="F55">
+        <v>4194.8</v>
+      </c>
+      <c r="G55">
+        <v>31806.799999999999</v>
+      </c>
+      <c r="H55">
+        <v>61685.5</v>
+      </c>
+      <c r="I55">
+        <v>12906.3</v>
+      </c>
+      <c r="J55">
+        <v>13932.1</v>
+      </c>
+      <c r="K55">
+        <v>1914.6</v>
+      </c>
+      <c r="L55">
+        <v>-780</v>
+      </c>
+      <c r="M55">
+        <v>-24.2</v>
+      </c>
+      <c r="N55">
+        <v>18493.7</v>
+      </c>
+      <c r="O55">
+        <v>37340.199999999997</v>
+      </c>
+      <c r="P55">
+        <v>16365.4</v>
+      </c>
+      <c r="Q55">
+        <v>384.3</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>24345.3</v>
+      </c>
+      <c r="U55">
+        <v>1971.2</v>
+      </c>
+      <c r="V55">
+        <v>1387.5</v>
+      </c>
+      <c r="W55">
+        <v>-123.4</v>
+      </c>
+      <c r="X55">
+        <v>-258.60000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-947.4</v>
+      </c>
+      <c r="AA55">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>731.1</v>
+      </c>
+      <c r="D56">
+        <v>18473.400000000001</v>
+      </c>
+      <c r="E56">
+        <v>4547.2</v>
+      </c>
+      <c r="F56">
+        <v>4352.1000000000004</v>
+      </c>
+      <c r="G56">
+        <v>32428.2</v>
+      </c>
+      <c r="H56">
+        <v>62303.6</v>
+      </c>
+      <c r="I56">
+        <v>13460.5</v>
+      </c>
+      <c r="J56">
+        <v>14037.8</v>
+      </c>
+      <c r="K56">
+        <v>2196.6999999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>19176.3</v>
+      </c>
+      <c r="O56">
+        <v>37926.699999999997</v>
+      </c>
+      <c r="P56">
+        <v>16743.900000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-186.6</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>24376.9</v>
+      </c>
+      <c r="U56">
+        <v>1784.6</v>
+      </c>
+      <c r="V56">
+        <v>1071</v>
+      </c>
+      <c r="W56">
+        <v>-120.5</v>
+      </c>
+      <c r="X56">
+        <v>-474.1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-25.5</v>
+      </c>
+      <c r="AA56">
+        <v>731.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>630.9</v>
+      </c>
+      <c r="D57">
+        <v>18557</v>
+      </c>
+      <c r="E57">
+        <v>4438.1000000000004</v>
+      </c>
+      <c r="F57">
+        <v>4345.8999999999996</v>
+      </c>
+      <c r="G57">
+        <v>32227.1</v>
+      </c>
+      <c r="H57">
+        <v>62058.2</v>
+      </c>
+      <c r="I57">
+        <v>12908.6</v>
+      </c>
+      <c r="J57">
+        <v>14538.3</v>
+      </c>
+      <c r="K57">
+        <v>1798.2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>18395</v>
+      </c>
+      <c r="O57">
+        <v>37764.199999999997</v>
+      </c>
+      <c r="P57">
+        <v>16961.5</v>
+      </c>
+      <c r="Q57">
+        <v>-66.7</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>24294</v>
+      </c>
+      <c r="U57">
+        <v>1717.9</v>
+      </c>
+      <c r="V57">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="W57">
+        <v>-119.2</v>
+      </c>
+      <c r="X57">
+        <v>-560.9</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-195.4</v>
+      </c>
+      <c r="AA57">
+        <v>630.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>506.7</v>
+      </c>
+      <c r="D58">
+        <v>18984.3</v>
+      </c>
+      <c r="E58">
+        <v>4825.5</v>
+      </c>
+      <c r="F58">
+        <v>4126.3999999999996</v>
+      </c>
+      <c r="G58">
+        <v>31947.8</v>
+      </c>
+      <c r="H58">
+        <v>61676.3</v>
+      </c>
+      <c r="I58">
+        <v>13207.6</v>
+      </c>
+      <c r="J58">
+        <v>14019.6</v>
+      </c>
+      <c r="K58">
+        <v>1915.3</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>18752.7</v>
+      </c>
+      <c r="O58">
+        <v>37425</v>
+      </c>
+      <c r="P58">
+        <v>16559.2</v>
+      </c>
+      <c r="Q58">
+        <v>433.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>51500</v>
+      </c>
+      <c r="T58">
+        <v>24251.3</v>
+      </c>
+      <c r="U58">
+        <v>2151.6999999999998</v>
+      </c>
+      <c r="V58">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="W58">
+        <v>-117.6</v>
+      </c>
+      <c r="X58">
+        <v>-528.9</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>693.1</v>
+      </c>
+      <c r="AA58">
+        <v>506.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>865.2</v>
+      </c>
+      <c r="D59">
+        <v>19051.5</v>
+      </c>
+      <c r="E59">
+        <v>4964.6000000000004</v>
+      </c>
+      <c r="F59">
+        <v>4924.6000000000004</v>
+      </c>
+      <c r="G59">
+        <v>34740.400000000001</v>
+      </c>
+      <c r="H59">
+        <v>65546</v>
+      </c>
+      <c r="I59">
+        <v>14482.4</v>
+      </c>
+      <c r="J59">
+        <v>14764.4</v>
+      </c>
+      <c r="K59">
+        <v>2473.4</v>
+      </c>
+      <c r="L59">
+        <v>-905.9</v>
+      </c>
+      <c r="M59">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="N59">
+        <v>21305.4</v>
+      </c>
+      <c r="O59">
+        <v>41211.699999999997</v>
+      </c>
+      <c r="P59">
+        <v>17862.8</v>
+      </c>
+      <c r="Q59">
+        <v>-754.7</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>24334.3</v>
+      </c>
+      <c r="U59">
+        <v>1397</v>
+      </c>
+      <c r="V59">
+        <v>1650.5</v>
+      </c>
+      <c r="W59">
+        <v>-166.6</v>
+      </c>
+      <c r="X59">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-1447</v>
+      </c>
+      <c r="AA59">
+        <v>865.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>859.1</v>
+      </c>
+      <c r="D60">
+        <v>20012.400000000001</v>
+      </c>
+      <c r="E60">
+        <v>4940.8</v>
+      </c>
+      <c r="F60">
+        <v>4807</v>
+      </c>
+      <c r="G60">
+        <v>33202.199999999997</v>
+      </c>
+      <c r="H60">
+        <v>64263.8</v>
+      </c>
+      <c r="I60">
+        <v>14420.8</v>
+      </c>
+      <c r="J60">
+        <v>15468.4</v>
+      </c>
+      <c r="K60">
+        <v>2258.1999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>20673.2</v>
+      </c>
+      <c r="O60">
+        <v>41201.199999999997</v>
+      </c>
+      <c r="P60">
+        <v>18351.5</v>
+      </c>
+      <c r="Q60">
+        <v>156</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>23062.6</v>
+      </c>
+      <c r="U60">
+        <v>1553</v>
+      </c>
+      <c r="V60">
+        <v>1173</v>
+      </c>
+      <c r="W60">
+        <v>-163.9</v>
+      </c>
+      <c r="X60">
+        <v>-1703</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>526.5</v>
+      </c>
+      <c r="AA60">
+        <v>859.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>654.79999999999995</v>
+      </c>
+      <c r="D61">
+        <v>19910.400000000001</v>
+      </c>
+      <c r="E61">
+        <v>4401.3999999999996</v>
+      </c>
+      <c r="F61">
+        <v>4441.3</v>
+      </c>
+      <c r="G61">
+        <v>31539.4</v>
+      </c>
+      <c r="H61">
+        <v>62335.6</v>
+      </c>
+      <c r="I61">
+        <v>12965.7</v>
+      </c>
+      <c r="J61">
+        <v>15719.6</v>
+      </c>
+      <c r="K61">
+        <v>2058.6</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>18365.8</v>
+      </c>
+      <c r="O61">
+        <v>39099.5</v>
+      </c>
+      <c r="P61">
+        <v>17778.2</v>
+      </c>
+      <c r="Q61">
+        <v>-5.2</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>23236.1</v>
+      </c>
+      <c r="U61">
+        <v>1547.8</v>
+      </c>
+      <c r="V61">
+        <v>343.4</v>
+      </c>
+      <c r="W61">
+        <v>-163</v>
+      </c>
+      <c r="X61">
+        <v>-593.9</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>654.79999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>180.9</v>
+      </c>
+      <c r="D62">
+        <v>20184.099999999999</v>
+      </c>
+      <c r="E62">
+        <v>4602.8</v>
+      </c>
+      <c r="F62">
+        <v>3868.6</v>
+      </c>
+      <c r="G62">
+        <v>30862.1</v>
+      </c>
+      <c r="H62">
+        <v>61717.8</v>
+      </c>
+      <c r="I62">
+        <v>13217</v>
+      </c>
+      <c r="J62">
+        <v>15324.5</v>
+      </c>
+      <c r="K62">
+        <v>1840.9</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>19092.599999999999</v>
+      </c>
+      <c r="O62">
+        <v>38673.699999999997</v>
+      </c>
+      <c r="P62">
+        <v>17165.400000000001</v>
+      </c>
+      <c r="Q62">
+        <v>565.70000000000005</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>53000</v>
+      </c>
+      <c r="T62">
+        <v>23044.1</v>
+      </c>
+      <c r="U62">
+        <v>2113.5</v>
+      </c>
+      <c r="V62">
+        <v>949.1</v>
+      </c>
+      <c r="W62">
+        <v>-163.1</v>
+      </c>
+      <c r="X62">
+        <v>-1012.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>711.9</v>
+      </c>
+      <c r="AA62">
+        <v>180.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>703</v>
+      </c>
+      <c r="D63">
+        <v>20305.400000000001</v>
+      </c>
+      <c r="E63">
+        <v>4998.3999999999996</v>
+      </c>
+      <c r="F63">
+        <v>4766.6000000000004</v>
+      </c>
+      <c r="G63">
+        <v>32965</v>
+      </c>
+      <c r="H63">
+        <v>63858.7</v>
+      </c>
+      <c r="I63">
+        <v>14013.9</v>
+      </c>
+      <c r="J63">
+        <v>14864.5</v>
+      </c>
+      <c r="K63">
+        <v>1995.3</v>
+      </c>
+      <c r="L63">
+        <v>-1170.5</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>20810.3</v>
+      </c>
+      <c r="O63">
+        <v>40311.599999999999</v>
+      </c>
+      <c r="P63">
+        <v>17259</v>
+      </c>
+      <c r="Q63">
+        <v>-437.5</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>23547.1</v>
+      </c>
+      <c r="U63">
+        <v>1676</v>
+      </c>
+      <c r="V63">
+        <v>1359.8</v>
+      </c>
+      <c r="W63">
+        <v>-170.7</v>
+      </c>
+      <c r="X63">
+        <v>-408.7</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-1118.5</v>
+      </c>
+      <c r="AA63">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>780.6</v>
+      </c>
+      <c r="D64">
+        <v>21465.599999999999</v>
+      </c>
+      <c r="E64">
+        <v>5260.9</v>
+      </c>
+      <c r="F64">
+        <v>4660.3999999999996</v>
+      </c>
+      <c r="G64">
+        <v>32957.699999999997</v>
+      </c>
+      <c r="H64">
+        <v>64062.6</v>
+      </c>
+      <c r="I64">
+        <v>14231.1</v>
+      </c>
+      <c r="J64">
+        <v>14202.4</v>
+      </c>
+      <c r="K64">
+        <v>1952</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>20816.8</v>
+      </c>
+      <c r="O64">
+        <v>39829</v>
+      </c>
+      <c r="P64">
+        <v>17082.3</v>
+      </c>
+      <c r="Q64">
+        <v>-93.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>24233.599999999999</v>
+      </c>
+      <c r="U64">
+        <v>1582.7</v>
+      </c>
+      <c r="V64">
+        <v>669.6</v>
+      </c>
+      <c r="W64">
+        <v>-170.9</v>
+      </c>
+      <c r="X64">
+        <v>-444.7</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-141.6</v>
+      </c>
+      <c r="AA64">
+        <v>780.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>617.79999999999995</v>
+      </c>
+      <c r="D65">
+        <v>21408.799999999999</v>
+      </c>
+      <c r="E65">
+        <v>5212.8</v>
+      </c>
+      <c r="F65">
+        <v>4486.3</v>
+      </c>
+      <c r="G65">
+        <v>32924.300000000003</v>
+      </c>
+      <c r="H65">
+        <v>64399.9</v>
+      </c>
+      <c r="I65">
+        <v>13350.7</v>
+      </c>
+      <c r="J65">
+        <v>14242.3</v>
+      </c>
+      <c r="K65">
+        <v>1799.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>21036.9</v>
+      </c>
+      <c r="O65">
+        <v>39655.699999999997</v>
+      </c>
+      <c r="P65">
+        <v>16969.5</v>
+      </c>
+      <c r="Q65">
+        <v>963.3</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>24744.2</v>
+      </c>
+      <c r="U65">
+        <v>2546</v>
+      </c>
+      <c r="V65">
+        <v>964</v>
+      </c>
+      <c r="W65">
+        <v>-171.1</v>
+      </c>
+      <c r="X65">
+        <v>-524.6</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>573.29999999999995</v>
+      </c>
+      <c r="AA65">
+        <v>617.79999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>368.4</v>
+      </c>
+      <c r="D66">
+        <v>21683</v>
+      </c>
+      <c r="E66">
+        <v>5860.8</v>
+      </c>
+      <c r="F66">
+        <v>4115.1000000000004</v>
+      </c>
+      <c r="G66">
+        <v>34314.9</v>
+      </c>
+      <c r="H66">
+        <v>65083.1</v>
+      </c>
+      <c r="I66">
+        <v>14200.4</v>
+      </c>
+      <c r="J66">
+        <v>14358.5</v>
+      </c>
+      <c r="K66">
+        <v>1518.9</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>21294.400000000001</v>
+      </c>
+      <c r="O66">
+        <v>39982.699999999997</v>
+      </c>
+      <c r="P66">
+        <v>16805.8</v>
+      </c>
+      <c r="Q66">
+        <v>1529.3</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>53000</v>
+      </c>
+      <c r="T66">
+        <v>25100.400000000001</v>
+      </c>
+      <c r="U66">
+        <v>4075.3</v>
+      </c>
+      <c r="V66">
+        <v>276.8</v>
+      </c>
+      <c r="W66">
+        <v>-171.3</v>
+      </c>
+      <c r="X66">
+        <v>579.4</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>572</v>
+      </c>
+      <c r="AA66">
+        <v>368.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>1009.9</v>
+      </c>
+      <c r="D67">
+        <v>22525.3</v>
+      </c>
+      <c r="E67">
+        <v>5773</v>
+      </c>
+      <c r="F67">
+        <v>4982.5</v>
+      </c>
+      <c r="G67">
+        <v>37981.800000000003</v>
+      </c>
+      <c r="H67">
+        <v>68943.5</v>
+      </c>
+      <c r="I67">
+        <v>13930.1</v>
+      </c>
+      <c r="J67">
+        <v>15467.3</v>
+      </c>
+      <c r="K67">
+        <v>1773.4</v>
+      </c>
+      <c r="L67">
+        <v>-1238.9000000000001</v>
+      </c>
+      <c r="M67">
+        <v>-401.1</v>
+      </c>
+      <c r="N67">
+        <v>23174.2</v>
+      </c>
+      <c r="O67">
+        <v>42851.6</v>
+      </c>
+      <c r="P67">
+        <v>18393.5</v>
+      </c>
+      <c r="Q67">
+        <v>2697.1</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>26091.9</v>
+      </c>
+      <c r="U67">
+        <v>6772.4</v>
+      </c>
+      <c r="V67">
+        <v>2688.2</v>
+      </c>
+      <c r="W67">
+        <v>-172.2</v>
+      </c>
+      <c r="X67">
+        <v>1234.3</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-956.8</v>
+      </c>
+      <c r="AA67">
+        <v>1009.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>855.3</v>
+      </c>
+      <c r="D68">
+        <v>22420.7</v>
+      </c>
+      <c r="E68">
+        <v>6105.7</v>
+      </c>
+      <c r="F68">
+        <v>4503.5</v>
+      </c>
+      <c r="G68">
+        <v>37130.699999999997</v>
+      </c>
+      <c r="H68">
+        <v>68237.600000000006</v>
+      </c>
+      <c r="I68">
+        <v>14302.3</v>
+      </c>
+      <c r="J68">
+        <v>15088</v>
+      </c>
+      <c r="K68">
+        <v>1793.7</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>22567.9</v>
+      </c>
+      <c r="O68">
+        <v>41805.9</v>
+      </c>
+      <c r="P68">
+        <v>17506.099999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-2211.1999999999998</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>26431.7</v>
+      </c>
+      <c r="U68">
+        <v>4561.2</v>
+      </c>
+      <c r="V68">
+        <v>393.1</v>
+      </c>
+      <c r="W68">
+        <v>-171.8</v>
+      </c>
+      <c r="X68">
+        <v>-1563.8</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-892.7</v>
+      </c>
+      <c r="AA68">
+        <v>855.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>746.8</v>
+      </c>
+      <c r="D69">
+        <v>22426</v>
+      </c>
+      <c r="E69">
+        <v>5692</v>
+      </c>
+      <c r="F69">
+        <v>4322</v>
+      </c>
+      <c r="G69">
+        <v>36973.699999999997</v>
+      </c>
+      <c r="H69">
+        <v>68309.899999999994</v>
+      </c>
+      <c r="I69">
+        <v>14961.9</v>
+      </c>
+      <c r="J69">
+        <v>13777.3</v>
+      </c>
+      <c r="K69">
+        <v>2086.4</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>24412.5</v>
+      </c>
+      <c r="O69">
+        <v>42361.599999999999</v>
+      </c>
+      <c r="P69">
+        <v>17137.099999999999</v>
+      </c>
+      <c r="Q69">
+        <v>1536.1</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>25948.3</v>
+      </c>
+      <c r="U69">
+        <v>6097.2</v>
+      </c>
+      <c r="V69">
+        <v>2404.6999999999998</v>
+      </c>
+      <c r="W69">
+        <v>-181</v>
+      </c>
+      <c r="X69">
+        <v>-1676.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>685.5</v>
+      </c>
+      <c r="AA69">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1231</v>
+      </c>
+      <c r="D70">
+        <v>22677</v>
+      </c>
+      <c r="E70">
+        <v>3605</v>
+      </c>
+      <c r="F70">
+        <v>4005</v>
+      </c>
+      <c r="G70">
+        <v>36263</v>
+      </c>
+      <c r="H70">
+        <v>70540</v>
+      </c>
+      <c r="I70">
+        <v>16036</v>
+      </c>
+      <c r="J70">
+        <v>17382</v>
+      </c>
+      <c r="K70">
+        <v>1729</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>23356</v>
+      </c>
+      <c r="O70">
+        <v>44037</v>
+      </c>
+      <c r="P70">
+        <v>20386</v>
+      </c>
+      <c r="Q70">
+        <v>-2488</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>56000</v>
+      </c>
+      <c r="T70">
+        <v>26503</v>
+      </c>
+      <c r="U70">
+        <v>3609</v>
+      </c>
+      <c r="V70">
+        <v>-1301</v>
+      </c>
+      <c r="W70">
+        <v>-180</v>
+      </c>
+      <c r="X70">
+        <v>2433</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1749</v>
+      </c>
+      <c r="AA70">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1312</v>
+      </c>
+      <c r="D71">
+        <v>22537</v>
+      </c>
+      <c r="E71">
+        <v>6255.9</v>
+      </c>
+      <c r="F71">
+        <v>5491</v>
+      </c>
+      <c r="G71">
+        <v>36974.1</v>
+      </c>
+      <c r="H71">
+        <v>73300.399999999994</v>
+      </c>
+      <c r="I71">
+        <v>16447.3</v>
+      </c>
+      <c r="J71">
+        <v>18110.099999999999</v>
+      </c>
+      <c r="K71">
+        <v>1736.8</v>
+      </c>
+      <c r="L71">
+        <v>-1887</v>
+      </c>
+      <c r="M71">
+        <v>-663</v>
+      </c>
+      <c r="N71">
+        <v>24755.9</v>
+      </c>
+      <c r="O71">
+        <v>46288</v>
+      </c>
+      <c r="P71">
+        <v>20497.7</v>
+      </c>
+      <c r="Q71">
+        <v>1022</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>27012.400000000001</v>
+      </c>
+      <c r="U71">
+        <v>4630.6000000000004</v>
+      </c>
+      <c r="V71">
+        <v>2215</v>
+      </c>
+      <c r="W71">
+        <v>-192</v>
+      </c>
+      <c r="X71">
+        <v>-627</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1152</v>
+      </c>
+      <c r="AA71">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1054</v>
+      </c>
+      <c r="D72">
+        <v>22944</v>
+      </c>
+      <c r="E72">
+        <v>4268.3</v>
+      </c>
+      <c r="F72">
+        <v>5216</v>
+      </c>
+      <c r="G72">
+        <v>37370.400000000001</v>
+      </c>
+      <c r="H72">
+        <v>74367.399999999994</v>
+      </c>
+      <c r="I72">
+        <v>16558.599999999999</v>
+      </c>
+      <c r="J72">
+        <v>17515.400000000001</v>
+      </c>
+      <c r="K72">
+        <v>1744.3</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>24505.7</v>
+      </c>
+      <c r="O72">
+        <v>45642.400000000001</v>
+      </c>
+      <c r="P72">
+        <v>19909.900000000001</v>
+      </c>
+      <c r="Q72">
+        <v>51</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>28725</v>
+      </c>
+      <c r="U72">
+        <v>4682</v>
+      </c>
+      <c r="V72">
+        <v>542</v>
+      </c>
+      <c r="W72">
+        <v>-196</v>
+      </c>
+      <c r="X72">
+        <v>287</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-86</v>
+      </c>
+      <c r="AA72">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>959</v>
+      </c>
+      <c r="D73">
+        <v>23251</v>
+      </c>
+      <c r="E73">
+        <v>4312</v>
+      </c>
+      <c r="F73">
+        <v>5066</v>
+      </c>
+      <c r="G73">
+        <v>37108</v>
+      </c>
+      <c r="H73">
+        <v>74445</v>
+      </c>
+      <c r="I73">
+        <v>16944</v>
+      </c>
+      <c r="J73">
+        <v>17300</v>
+      </c>
+      <c r="K73">
+        <v>2011</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>24174</v>
+      </c>
+      <c r="O73">
+        <v>45351</v>
+      </c>
+      <c r="P73">
+        <v>20160</v>
+      </c>
+      <c r="Q73">
+        <v>-422</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>29094</v>
+      </c>
+      <c r="U73">
+        <v>4260</v>
+      </c>
+      <c r="V73">
+        <v>607</v>
+      </c>
+      <c r="W73">
+        <v>-195</v>
+      </c>
+      <c r="X73">
+        <v>-340</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-209</v>
+      </c>
+      <c r="AA73">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>425</v>
+      </c>
+      <c r="D74">
+        <v>23359</v>
+      </c>
+      <c r="E74">
+        <v>4465</v>
+      </c>
+      <c r="F74">
+        <v>4423</v>
+      </c>
+      <c r="G74">
+        <v>34321</v>
+      </c>
+      <c r="H74">
+        <v>71571</v>
+      </c>
+      <c r="I74">
+        <v>15078</v>
+      </c>
+      <c r="J74">
+        <v>17217</v>
+      </c>
+      <c r="K74">
+        <v>1749</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>21965</v>
+      </c>
+      <c r="O74">
+        <v>43030</v>
+      </c>
+      <c r="P74">
+        <v>19815</v>
+      </c>
+      <c r="Q74">
+        <v>-326</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>63900</v>
+      </c>
+      <c r="T74">
+        <v>28541</v>
+      </c>
+      <c r="U74">
+        <v>3934</v>
+      </c>
+      <c r="V74">
+        <v>463</v>
+      </c>
+      <c r="W74">
+        <v>-193</v>
+      </c>
+      <c r="X74">
+        <v>-1561</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1072</v>
+      </c>
+      <c r="AA74">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1551</v>
+      </c>
+      <c r="D75">
+        <v>24666</v>
+      </c>
+      <c r="E75">
+        <v>5049</v>
+      </c>
+      <c r="F75">
+        <v>5384</v>
+      </c>
+      <c r="G75">
+        <v>36611</v>
+      </c>
+      <c r="H75">
+        <v>74523</v>
+      </c>
+      <c r="I75">
+        <v>14848</v>
+      </c>
+      <c r="J75">
+        <v>17396</v>
+      </c>
+      <c r="K75">
+        <v>1685</v>
+      </c>
+      <c r="L75">
+        <v>-2760</v>
+      </c>
+      <c r="M75">
+        <v>-63</v>
+      </c>
+      <c r="N75">
+        <v>22682</v>
+      </c>
+      <c r="O75">
+        <v>44525</v>
+      </c>
+      <c r="P75">
+        <v>20626</v>
+      </c>
+      <c r="Q75">
+        <v>548</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>29998</v>
+      </c>
+      <c r="U75">
+        <v>4482</v>
+      </c>
+      <c r="V75">
+        <v>1630</v>
+      </c>
+      <c r="W75">
+        <v>-206</v>
+      </c>
+      <c r="X75">
+        <v>-429</v>
+      </c>
+      <c r="Y75">
+        <v>519</v>
+      </c>
+      <c r="Z75">
+        <v>-440</v>
+      </c>
+      <c r="AA75">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1139</v>
+      </c>
+      <c r="D76">
+        <v>25466</v>
+      </c>
+      <c r="E76">
+        <v>4751</v>
+      </c>
+      <c r="F76">
+        <v>5098</v>
+      </c>
+      <c r="G76">
+        <v>37805</v>
+      </c>
+      <c r="H76">
+        <v>75851</v>
+      </c>
+      <c r="I76">
+        <v>15449</v>
+      </c>
+      <c r="J76">
+        <v>17436</v>
+      </c>
+      <c r="K76">
+        <v>1574</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>23090</v>
+      </c>
+      <c r="O76">
+        <v>45058</v>
+      </c>
+      <c r="P76">
+        <v>20559</v>
+      </c>
+      <c r="Q76">
+        <v>-404</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>30793</v>
+      </c>
+      <c r="U76">
+        <v>4078</v>
+      </c>
+      <c r="V76">
+        <v>1437</v>
+      </c>
+      <c r="W76">
+        <v>-206</v>
+      </c>
+      <c r="X76">
+        <v>-677</v>
+      </c>
+      <c r="Y76">
+        <v>524</v>
+      </c>
+      <c r="Z76">
+        <v>-944</v>
+      </c>
+      <c r="AA76">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1183</v>
+      </c>
+      <c r="D77">
+        <v>26674</v>
+      </c>
+      <c r="E77">
+        <v>4782</v>
+      </c>
+      <c r="F77">
+        <v>5921</v>
+      </c>
+      <c r="G77">
+        <v>39504</v>
+      </c>
+      <c r="H77">
+        <v>77809</v>
+      </c>
+      <c r="I77">
+        <v>16002</v>
+      </c>
+      <c r="J77">
+        <v>18820</v>
+      </c>
+      <c r="K77">
+        <v>1175</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>23234</v>
+      </c>
+      <c r="O77">
+        <v>46477</v>
+      </c>
+      <c r="P77">
+        <v>21335</v>
+      </c>
+      <c r="Q77">
+        <v>112</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>31332</v>
+      </c>
+      <c r="U77">
+        <v>4190</v>
+      </c>
+      <c r="V77">
+        <v>1667</v>
+      </c>
+      <c r="W77">
+        <v>-204</v>
+      </c>
+      <c r="X77">
+        <v>144</v>
+      </c>
+      <c r="Y77">
+        <v>473</v>
+      </c>
+      <c r="Z77">
+        <v>-1511</v>
+      </c>
+      <c r="AA77">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>934</v>
+      </c>
+      <c r="D78">
+        <v>27406</v>
+      </c>
+      <c r="E78">
+        <v>5014</v>
+      </c>
+      <c r="F78">
+        <v>6023</v>
+      </c>
+      <c r="G78">
+        <v>39033</v>
+      </c>
+      <c r="H78">
+        <v>77453</v>
+      </c>
+      <c r="I78">
+        <v>16090</v>
+      </c>
+      <c r="J78">
+        <v>17787</v>
+      </c>
+      <c r="K78">
+        <v>700</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>23532</v>
+      </c>
+      <c r="O78">
+        <v>45725</v>
+      </c>
+      <c r="P78">
+        <v>20725</v>
+      </c>
+      <c r="Q78">
+        <v>747</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>70600</v>
+      </c>
+      <c r="T78">
+        <v>31728</v>
+      </c>
+      <c r="U78">
+        <v>4937</v>
+      </c>
+      <c r="V78">
+        <v>1327</v>
+      </c>
+      <c r="W78">
+        <v>-202</v>
+      </c>
+      <c r="X78">
+        <v>-1304</v>
+      </c>
+      <c r="Y78">
+        <v>482</v>
+      </c>
+      <c r="Z78">
+        <v>976</v>
+      </c>
+      <c r="AA78">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1523</v>
+      </c>
+      <c r="D79">
+        <v>29621</v>
+      </c>
+      <c r="E79">
+        <v>5786</v>
+      </c>
+      <c r="F79">
+        <v>8132</v>
+      </c>
+      <c r="G79">
+        <v>41256</v>
+      </c>
+      <c r="H79">
+        <v>82399</v>
+      </c>
+      <c r="I79">
+        <v>18212</v>
+      </c>
+      <c r="J79">
+        <v>19005</v>
+      </c>
+      <c r="K79">
+        <v>1502</v>
+      </c>
+      <c r="L79">
+        <v>-700</v>
+      </c>
+      <c r="M79">
+        <v>-52</v>
+      </c>
+      <c r="N79">
+        <v>27039</v>
+      </c>
+      <c r="O79">
+        <v>50706</v>
+      </c>
+      <c r="P79">
+        <v>23106</v>
+      </c>
+      <c r="Q79">
+        <v>408</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>31693</v>
+      </c>
+      <c r="U79">
+        <v>5345</v>
+      </c>
+      <c r="V79">
+        <v>2515</v>
+      </c>
+      <c r="W79">
+        <v>-240</v>
+      </c>
+      <c r="X79">
+        <v>679</v>
+      </c>
+      <c r="Y79">
+        <v>801</v>
+      </c>
+      <c r="Z79">
+        <v>-571</v>
+      </c>
+      <c r="AA79">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>2276</v>
+      </c>
+      <c r="D80">
+        <v>29264</v>
+      </c>
+      <c r="E80">
+        <v>5456</v>
+      </c>
+      <c r="F80">
+        <v>9717</v>
+      </c>
+      <c r="G80">
+        <v>46764</v>
+      </c>
+      <c r="H80">
+        <v>87976</v>
+      </c>
+      <c r="I80">
+        <v>18721</v>
+      </c>
+      <c r="J80">
+        <v>19873</v>
+      </c>
+      <c r="K80">
+        <v>1114</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>28522</v>
+      </c>
+      <c r="O80">
+        <v>53521</v>
+      </c>
+      <c r="P80">
+        <v>23598</v>
+      </c>
+      <c r="Q80">
+        <v>683</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>34455</v>
+      </c>
+      <c r="U80">
+        <v>6028</v>
+      </c>
+      <c r="V80">
+        <v>5510</v>
+      </c>
+      <c r="W80">
+        <v>-242</v>
+      </c>
+      <c r="X80">
+        <v>105</v>
+      </c>
+      <c r="Y80">
+        <v>815</v>
+      </c>
+      <c r="Z80">
+        <v>-4004</v>
+      </c>
+      <c r="AA80">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>222</v>
+      </c>
+      <c r="D81">
+        <v>31158</v>
+      </c>
+      <c r="E81">
+        <v>5343</v>
+      </c>
+      <c r="F81">
+        <v>8237</v>
+      </c>
+      <c r="G81">
+        <v>45450</v>
+      </c>
+      <c r="H81">
+        <v>86574</v>
+      </c>
+      <c r="I81">
+        <v>19606</v>
+      </c>
+      <c r="J81">
+        <v>19094</v>
+      </c>
+      <c r="K81">
+        <v>1169</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>28561</v>
+      </c>
+      <c r="O81">
+        <v>52653</v>
+      </c>
+      <c r="P81">
+        <v>22852</v>
+      </c>
+      <c r="Q81">
+        <v>-2044</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>33921</v>
+      </c>
+      <c r="U81">
+        <v>3984</v>
+      </c>
+      <c r="V81">
+        <v>-1150</v>
+      </c>
+      <c r="W81">
+        <v>-238</v>
+      </c>
+      <c r="X81">
+        <v>-984</v>
+      </c>
+      <c r="Y81">
+        <v>798</v>
+      </c>
+      <c r="Z81">
+        <v>369</v>
+      </c>
+      <c r="AA81">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>551</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>31825</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>5279</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>7737</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>45751</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>86615</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>21442</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>19335</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>29453</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>53416</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>20992</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>1757</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>83400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>33199</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5741</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>3813</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-234</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-2367</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>847</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>773</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>551</v>
       </c>
     </row>
